--- a/data/vintage_data/data_20091110.xlsx
+++ b/data/vintage_data/data_20091110.xlsx
@@ -15561,9 +15561,7 @@
       <c r="V101" t="n">
         <v>2.264966429587882</v>
       </c>
-      <c r="W101" t="n">
-        <v>10.1029</v>
-      </c>
+      <c r="W101" t="inlineStr"/>
       <c r="X101" t="inlineStr"/>
     </row>
   </sheetData>
@@ -23180,16 +23178,16 @@
       <c r="M101" t="inlineStr"/>
       <c r="N101" t="inlineStr"/>
       <c r="O101" t="inlineStr"/>
-      <c r="P101" t="inlineStr"/>
+      <c r="P101" t="n">
+        <v>-54.69654820499168</v>
+      </c>
       <c r="Q101" t="inlineStr"/>
       <c r="R101" t="inlineStr"/>
       <c r="S101" t="inlineStr"/>
       <c r="T101" t="inlineStr"/>
       <c r="U101" t="inlineStr"/>
       <c r="V101" t="inlineStr"/>
-      <c r="W101" t="n">
-        <v>10.2</v>
-      </c>
+      <c r="W101" t="inlineStr"/>
       <c r="X101" t="inlineStr"/>
     </row>
   </sheetData>
@@ -30814,7 +30812,9 @@
       <c r="O101" t="n">
         <v>948.0141468376768</v>
       </c>
-      <c r="P101" t="inlineStr"/>
+      <c r="P101" t="n">
+        <v>-54.69654820499168</v>
+      </c>
       <c r="Q101" t="inlineStr"/>
       <c r="R101" t="inlineStr"/>
       <c r="S101" t="inlineStr"/>
@@ -30825,9 +30825,7 @@
       <c r="V101" t="n">
         <v>2.264966429587882</v>
       </c>
-      <c r="W101" t="n">
-        <v>10.2</v>
-      </c>
+      <c r="W101" t="inlineStr"/>
       <c r="X101" t="inlineStr"/>
     </row>
   </sheetData>

--- a/data/vintage_data/data_20091110.xlsx
+++ b/data/vintage_data/data_20091110.xlsx
@@ -361,7 +361,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X100"/>
+  <dimension ref="A1:Z100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,10 +477,20 @@
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
+          <t>mortffr_obs</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>mortgage_nom_obs</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
           <t>unr_obs</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>wage_rgd_obs</t>
         </is>
@@ -554,9 +564,15 @@
         <v>0.163800200423837</v>
       </c>
       <c r="W2" t="n">
+        <v>0.970388888888889</v>
+      </c>
+      <c r="X2" t="n">
+        <v>4.838279261661252</v>
+      </c>
+      <c r="Y2" t="n">
         <v>7.233333333333333</v>
       </c>
-      <c r="X2" t="n">
+      <c r="Z2" t="n">
         <v>0.0585619023566217</v>
       </c>
     </row>
@@ -628,9 +644,15 @@
         <v>0.9772064733792302</v>
       </c>
       <c r="W3" t="n">
+        <v>1.014734432234433</v>
+      </c>
+      <c r="X3" t="n">
+        <v>2.887889102968135</v>
+      </c>
+      <c r="Y3" t="n">
         <v>7.3</v>
       </c>
-      <c r="X3" t="n">
+      <c r="Z3" t="n">
         <v>0.2561233676117278</v>
       </c>
     </row>
@@ -702,9 +724,15 @@
         <v>1.979203413194857</v>
       </c>
       <c r="W4" t="n">
+        <v>0.8547554347826087</v>
+      </c>
+      <c r="X4" t="n">
+        <v>4.283328736272085</v>
+      </c>
+      <c r="Y4" t="n">
         <v>7.2</v>
       </c>
-      <c r="X4" t="n">
+      <c r="Z4" t="n">
         <v>0.9294994864702675</v>
       </c>
     </row>
@@ -776,9 +804,15 @@
         <v>3.487212571402014</v>
       </c>
       <c r="W5" t="n">
+        <v>0.7705525362318832</v>
+      </c>
+      <c r="X5" t="n">
+        <v>3.377405381157359</v>
+      </c>
+      <c r="Y5" t="n">
         <v>7.033333333333334</v>
       </c>
-      <c r="X5" t="n">
+      <c r="Z5" t="n">
         <v>1.136886190987389</v>
       </c>
     </row>
@@ -850,9 +884,15 @@
         <v>5.377104065178582</v>
       </c>
       <c r="W6" t="n">
+        <v>0.7299444444444461</v>
+      </c>
+      <c r="X6" t="n">
+        <v>1.821793037383781</v>
+      </c>
+      <c r="Y6" t="n">
         <v>7.033333333333334</v>
       </c>
-      <c r="X6" t="n">
+      <c r="Z6" t="n">
         <v>0.8024461665134646</v>
       </c>
     </row>
@@ -924,9 +964,15 @@
         <v>6.338662189231478</v>
       </c>
       <c r="W7" t="n">
+        <v>0.8312179487179467</v>
+      </c>
+      <c r="X7" t="n">
+        <v>3.266066946893799</v>
+      </c>
+      <c r="Y7" t="n">
         <v>7.166666666666667</v>
       </c>
-      <c r="X7" t="n">
+      <c r="Z7" t="n">
         <v>0.4574238561276663</v>
       </c>
     </row>
@@ -998,9 +1044,15 @@
         <v>2.825933731440306</v>
       </c>
       <c r="W8" t="n">
+        <v>0.9993025362318846</v>
+      </c>
+      <c r="X8" t="n">
+        <v>3.995249609571855</v>
+      </c>
+      <c r="Y8" t="n">
         <v>6.966666666666666</v>
       </c>
-      <c r="X8" t="n">
+      <c r="Z8" t="n">
         <v>0.5089154227391779</v>
       </c>
     </row>
@@ -1072,9 +1124,15 @@
         <v>0.9683174251825857</v>
       </c>
       <c r="W9" t="n">
+        <v>0.8933152173913048</v>
+      </c>
+      <c r="X9" t="n">
+        <v>3.767756284239854</v>
+      </c>
+      <c r="Y9" t="n">
         <v>6.833333333333333</v>
       </c>
-      <c r="X9" t="n">
+      <c r="Z9" t="n">
         <v>0.535950991194442</v>
       </c>
     </row>
@@ -1146,9 +1204,15 @@
         <v>0.7853443505570304</v>
       </c>
       <c r="W10" t="n">
+        <v>0.7668611111111105</v>
+      </c>
+      <c r="X10" t="n">
+        <v>1.947735118636464</v>
+      </c>
+      <c r="Y10" t="n">
         <v>6.599999999999999</v>
       </c>
-      <c r="X10" t="n">
+      <c r="Z10" t="n">
         <v>-0.2790726782977443</v>
       </c>
     </row>
@@ -1220,9 +1284,15 @@
         <v>1.209517984897514</v>
       </c>
       <c r="W11" t="n">
+        <v>0.6541666666666672</v>
+      </c>
+      <c r="X11" t="n">
+        <v>4.147767327829527</v>
+      </c>
+      <c r="Y11" t="n">
         <v>6.266666666666667</v>
       </c>
-      <c r="X11" t="n">
+      <c r="Z11" t="n">
         <v>0.1112838271730546</v>
       </c>
     </row>
@@ -1294,9 +1364,15 @@
         <v>0.5566274273321643</v>
       </c>
       <c r="W12" t="n">
+        <v>0.6326086956521739</v>
+      </c>
+      <c r="X12" t="n">
+        <v>2.826774900665543</v>
+      </c>
+      <c r="Y12" t="n">
         <v>6</v>
       </c>
-      <c r="X12" t="n">
+      <c r="Z12" t="n">
         <v>0.2338340968445509</v>
       </c>
     </row>
@@ -1368,9 +1444,15 @@
         <v>1.399217231107909</v>
       </c>
       <c r="W13" t="n">
+        <v>0.5842481884057971</v>
+      </c>
+      <c r="X13" t="n">
+        <v>1.41489184132428</v>
+      </c>
+      <c r="Y13" t="n">
         <v>5.833333333333333</v>
       </c>
-      <c r="X13" t="n">
+      <c r="Z13" t="n">
         <v>0.4288254204660166</v>
       </c>
     </row>
@@ -1442,9 +1524,15 @@
         <v>-1.31385657718383</v>
       </c>
       <c r="W14" t="n">
+        <v>0.6285164835164825</v>
+      </c>
+      <c r="X14" t="n">
+        <v>2.538290967561651</v>
+      </c>
+      <c r="Y14" t="n">
         <v>5.7</v>
       </c>
-      <c r="X14" t="n">
+      <c r="Z14" t="n">
         <v>0.9604147122408058</v>
       </c>
     </row>
@@ -1516,9 +1604,15 @@
         <v>1.692087748833718</v>
       </c>
       <c r="W15" t="n">
+        <v>0.5179304029304042</v>
+      </c>
+      <c r="X15" t="n">
+        <v>3.489634163901059</v>
+      </c>
+      <c r="Y15" t="n">
         <v>5.466666666666666</v>
       </c>
-      <c r="X15" t="n">
+      <c r="Z15" t="n">
         <v>0.2133605501158805</v>
       </c>
     </row>
@@ -1590,9 +1684,15 @@
         <v>0.6688988150796489</v>
       </c>
       <c r="W16" t="n">
+        <v>0.3266304347826092</v>
+      </c>
+      <c r="X16" t="n">
+        <v>2.91823679065083</v>
+      </c>
+      <c r="Y16" t="n">
         <v>5.466666666666666</v>
       </c>
-      <c r="X16" t="n">
+      <c r="Z16" t="n">
         <v>-0.02583299344620927</v>
       </c>
     </row>
@@ -1664,9 +1764,15 @@
         <v>1.816730395544893</v>
       </c>
       <c r="W17" t="n">
+        <v>0.2487137681159424</v>
+      </c>
+      <c r="X17" t="n">
+        <v>2.726497326586302</v>
+      </c>
+      <c r="Y17" t="n">
         <v>5.333333333333333</v>
       </c>
-      <c r="X17" t="n">
+      <c r="Z17" t="n">
         <v>-0.1606901132240531</v>
       </c>
     </row>
@@ -1738,9 +1844,15 @@
         <v>0.08179959556317626</v>
       </c>
       <c r="W18" t="n">
+        <v>0.08588888888888979</v>
+      </c>
+      <c r="X18" t="n">
+        <v>1.643544561454601</v>
+      </c>
+      <c r="Y18" t="n">
         <v>5.2</v>
       </c>
-      <c r="X18" t="n">
+      <c r="Z18" t="n">
         <v>-0.7871523321403552</v>
       </c>
     </row>
@@ -1812,9 +1924,15 @@
         <v>-1.815231360718883</v>
       </c>
       <c r="W19" t="n">
+        <v>0.1560714285714275</v>
+      </c>
+      <c r="X19" t="n">
+        <v>2.721931283633474</v>
+      </c>
+      <c r="Y19" t="n">
         <v>5.233333333333333</v>
       </c>
-      <c r="X19" t="n">
+      <c r="Z19" t="n">
         <v>-0.718270759276684</v>
       </c>
     </row>
@@ -1886,9 +2004,15 @@
         <v>-0.7521974454688446</v>
       </c>
       <c r="W20" t="n">
+        <v>0.2882699275362324</v>
+      </c>
+      <c r="X20" t="n">
+        <v>2.947527669609471</v>
+      </c>
+      <c r="Y20" t="n">
         <v>5.233333333333333</v>
       </c>
-      <c r="X20" t="n">
+      <c r="Z20" t="n">
         <v>0.1213990856734398</v>
       </c>
     </row>
@@ -1960,9 +2084,15 @@
         <v>-1.521584723725332</v>
       </c>
       <c r="W21" t="n">
+        <v>0.3705525362318833</v>
+      </c>
+      <c r="X21" t="n">
+        <v>2.213323210101831</v>
+      </c>
+      <c r="Y21" t="n">
         <v>5.366666666666667</v>
       </c>
-      <c r="X21" t="n">
+      <c r="Z21" t="n">
         <v>0.7056477911718986</v>
       </c>
     </row>
@@ -2034,9 +2164,15 @@
         <v>1.856593412253519</v>
       </c>
       <c r="W22" t="n">
+        <v>0.4446666666666679</v>
+      </c>
+      <c r="X22" t="n">
+        <v>3.257750385284998</v>
+      </c>
+      <c r="Y22" t="n">
         <v>5.3</v>
       </c>
-      <c r="X22" t="n">
+      <c r="Z22" t="n">
         <v>0.7077631708862511</v>
       </c>
     </row>
@@ -2108,9 +2244,15 @@
         <v>-3.531530571602695</v>
       </c>
       <c r="W23" t="n">
+        <v>0.4802481684981683</v>
+      </c>
+      <c r="X23" t="n">
+        <v>2.560864642558711</v>
+      </c>
+      <c r="Y23" t="n">
         <v>5.333333333333333</v>
       </c>
-      <c r="X23" t="n">
+      <c r="Z23" t="n">
         <v>0.9744668559119278</v>
       </c>
     </row>
@@ -2182,9 +2324,15 @@
         <v>-5.382664581262346</v>
       </c>
       <c r="W24" t="n">
+        <v>0.4706123188405811</v>
+      </c>
+      <c r="X24" t="n">
+        <v>2.122346525019553</v>
+      </c>
+      <c r="Y24" t="n">
         <v>5.7</v>
       </c>
-      <c r="X24" t="n">
+      <c r="Z24" t="n">
         <v>0.6411849710942379</v>
       </c>
     </row>
@@ -2256,9 +2404,15 @@
         <v>-5.543927728245711</v>
       </c>
       <c r="W25" t="n">
+        <v>0.5443242753623196</v>
+      </c>
+      <c r="X25" t="n">
+        <v>1.724470643360993</v>
+      </c>
+      <c r="Y25" t="n">
         <v>6.133333333333334</v>
       </c>
-      <c r="X25" t="n">
+      <c r="Z25" t="n">
         <v>0.08500740390188948</v>
       </c>
     </row>
@@ -2330,9 +2484,15 @@
         <v>-5.869411928637701</v>
       </c>
       <c r="W26" t="n">
+        <v>0.8115555555555565</v>
+      </c>
+      <c r="X26" t="n">
+        <v>1.59167876108484</v>
+      </c>
+      <c r="Y26" t="n">
         <v>6.600000000000001</v>
       </c>
-      <c r="X26" t="n">
+      <c r="Z26" t="n">
         <v>-0.1980533355639446</v>
       </c>
     </row>
@@ -2404,9 +2564,15 @@
         <v>2.778658182330028</v>
       </c>
       <c r="W27" t="n">
+        <v>0.9039835164835168</v>
+      </c>
+      <c r="X27" t="n">
+        <v>2.382521088255797</v>
+      </c>
+      <c r="Y27" t="n">
         <v>6.833333333333333</v>
       </c>
-      <c r="X27" t="n">
+      <c r="Z27" t="n">
         <v>1.206690169757592</v>
       </c>
     </row>
@@ -2478,9 +2644,15 @@
         <v>4.67238269063617</v>
       </c>
       <c r="W28" t="n">
+        <v>0.9203623188405803</v>
+      </c>
+      <c r="X28" t="n">
+        <v>0.9190509855307156</v>
+      </c>
+      <c r="Y28" t="n">
         <v>6.866666666666667</v>
       </c>
-      <c r="X28" t="n">
+      <c r="Z28" t="n">
         <v>0.3593813970288645</v>
       </c>
     </row>
@@ -2552,9 +2724,15 @@
         <v>1.837507530499412</v>
       </c>
       <c r="W29" t="n">
+        <v>0.9803804347826088</v>
+      </c>
+      <c r="X29" t="n">
+        <v>2.022589372440903</v>
+      </c>
+      <c r="Y29" t="n">
         <v>7.100000000000001</v>
       </c>
-      <c r="X29" t="n">
+      <c r="Z29" t="n">
         <v>0.5398218591525976</v>
       </c>
     </row>
@@ -2626,9 +2804,15 @@
         <v>4.652001563489291</v>
       </c>
       <c r="W30" t="n">
+        <v>1.093928571428571</v>
+      </c>
+      <c r="X30" t="n">
+        <v>1.503099379549398</v>
+      </c>
+      <c r="Y30" t="n">
         <v>7.366666666666667</v>
       </c>
-      <c r="X30" t="n">
+      <c r="Z30" t="n">
         <v>1.345356232782868</v>
       </c>
     </row>
@@ -2700,9 +2884,15 @@
         <v>4.658078189748251</v>
       </c>
       <c r="W31" t="n">
+        <v>1.173150183150183</v>
+      </c>
+      <c r="X31" t="n">
+        <v>1.211165913037192</v>
+      </c>
+      <c r="Y31" t="n">
         <v>7.600000000000001</v>
       </c>
-      <c r="X31" t="n">
+      <c r="Z31" t="n">
         <v>0.2027438608412624</v>
       </c>
     </row>
@@ -2774,9 +2964,15 @@
         <v>0.931420789569421</v>
       </c>
       <c r="W32" t="n">
+        <v>1.159356884057971</v>
+      </c>
+      <c r="X32" t="n">
+        <v>1.974645713851098</v>
+      </c>
+      <c r="Y32" t="n">
         <v>7.633333333333333</v>
       </c>
-      <c r="X32" t="n">
+      <c r="Z32" t="n">
         <v>1.069567515261087</v>
       </c>
     </row>
@@ -2848,9 +3044,15 @@
         <v>4.65200156348927</v>
       </c>
       <c r="W33" t="n">
+        <v>1.183777173913043</v>
+      </c>
+      <c r="X33" t="n">
+        <v>1.59825088905419</v>
+      </c>
+      <c r="Y33" t="n">
         <v>7.366666666666667</v>
       </c>
-      <c r="X33" t="n">
+      <c r="Z33" t="n">
         <v>-0.2075065333136279</v>
       </c>
     </row>
@@ -2922,9 +3124,15 @@
         <v>1.596203083978002</v>
       </c>
       <c r="W34" t="n">
+        <v>1.13275</v>
+      </c>
+      <c r="X34" t="n">
+        <v>0.4850840317691807</v>
+      </c>
+      <c r="Y34" t="n">
         <v>7.133333333333333</v>
       </c>
-      <c r="X34" t="n">
+      <c r="Z34" t="n">
         <v>-0.4447344041411498</v>
       </c>
     </row>
@@ -2996,9 +3204,15 @@
         <v>2.076470297090824</v>
       </c>
       <c r="W35" t="n">
+        <v>1.06985347985348</v>
+      </c>
+      <c r="X35" t="n">
+        <v>1.861439197710495</v>
+      </c>
+      <c r="Y35" t="n">
         <v>7.066666666666666</v>
       </c>
-      <c r="X35" t="n">
+      <c r="Z35" t="n">
         <v>-0.1700881378508468</v>
       </c>
     </row>
@@ -3070,9 +3284,15 @@
         <v>4.325408693025432</v>
       </c>
       <c r="W36" t="n">
+        <v>0.9964039855072462</v>
+      </c>
+      <c r="X36" t="n">
+        <v>1.710166196199506</v>
+      </c>
+      <c r="Y36" t="n">
         <v>6.8</v>
       </c>
-      <c r="X36" t="n">
+      <c r="Z36" t="n">
         <v>-0.02307160647698863</v>
       </c>
     </row>
@@ -3144,9 +3364,15 @@
         <v>5.350028904258899</v>
       </c>
       <c r="W37" t="n">
+        <v>0.9521014492753619</v>
+      </c>
+      <c r="X37" t="n">
+        <v>1.380735594952812</v>
+      </c>
+      <c r="Y37" t="n">
         <v>6.633333333333333</v>
       </c>
-      <c r="X37" t="n">
+      <c r="Z37" t="n">
         <v>-0.1135633490294474</v>
       </c>
     </row>
@@ -3220,9 +3446,15 @@
         <v>3.255135040800878</v>
       </c>
       <c r="W38" t="n">
+        <v>0.9268333333333333</v>
+      </c>
+      <c r="X38" t="n">
+        <v>1.004696775533694</v>
+      </c>
+      <c r="Y38" t="n">
         <v>6.566666666666666</v>
       </c>
-      <c r="X38" t="n">
+      <c r="Z38" t="n">
         <v>0.5997309935410871</v>
       </c>
     </row>
@@ -3296,9 +3528,15 @@
         <v>3.84341373392604</v>
       </c>
       <c r="W39" t="n">
+        <v>0.8729945054945051</v>
+      </c>
+      <c r="X39" t="n">
+        <v>1.477308904247951</v>
+      </c>
+      <c r="Y39" t="n">
         <v>6.2</v>
       </c>
-      <c r="X39" t="n">
+      <c r="Z39" t="n">
         <v>-0.6334456811329374</v>
       </c>
     </row>
@@ -3372,9 +3610,15 @@
         <v>-0.03279226132025664</v>
       </c>
       <c r="W40" t="n">
+        <v>0.8086413043478262</v>
+      </c>
+      <c r="X40" t="n">
+        <v>1.496829968862364</v>
+      </c>
+      <c r="Y40" t="n">
         <v>6</v>
       </c>
-      <c r="X40" t="n">
+      <c r="Z40" t="n">
         <v>-0.593522518775743</v>
       </c>
     </row>
@@ -3448,9 +3692,15 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
+        <v>0.6613496376811594</v>
+      </c>
+      <c r="X41" t="n">
+        <v>1.425481922786129</v>
+      </c>
+      <c r="Y41" t="n">
         <v>5.633333333333333</v>
       </c>
-      <c r="X41" t="n">
+      <c r="Z41" t="n">
         <v>0.03990572122865862</v>
       </c>
     </row>
@@ -3524,9 +3774,15 @@
         <v>-1.021930766046043</v>
       </c>
       <c r="W42" t="n">
+        <v>0.5834722222222226</v>
+      </c>
+      <c r="X42" t="n">
+        <v>0.8164980190834302</v>
+      </c>
+      <c r="Y42" t="n">
         <v>5.466666666666666</v>
       </c>
-      <c r="X42" t="n">
+      <c r="Z42" t="n">
         <v>0.1667516163775227</v>
       </c>
     </row>
@@ -3600,9 +3856,15 @@
         <v>-2.788690706559746</v>
       </c>
       <c r="W43" t="n">
+        <v>0.4902197802197803</v>
+      </c>
+      <c r="X43" t="n">
+        <v>1.437660580239144</v>
+      </c>
+      <c r="Y43" t="n">
         <v>5.666666666666667</v>
       </c>
-      <c r="X43" t="n">
+      <c r="Z43" t="n">
         <v>0.1078687456864371</v>
       </c>
     </row>
@@ -3676,9 +3938,15 @@
         <v>3.449195089352135</v>
       </c>
       <c r="W44" t="n">
+        <v>0.4848731884057966</v>
+      </c>
+      <c r="X44" t="n">
+        <v>1.576129160699601</v>
+      </c>
+      <c r="Y44" t="n">
         <v>5.666666666666667</v>
       </c>
-      <c r="X44" t="n">
+      <c r="Z44" t="n">
         <v>0.17628492154494</v>
       </c>
     </row>
@@ -3752,9 +4020,15 @@
         <v>2.791482780385841</v>
       </c>
       <c r="W45" t="n">
+        <v>0.4534692028985505</v>
+      </c>
+      <c r="X45" t="n">
+        <v>0.9095470657360019</v>
+      </c>
+      <c r="Y45" t="n">
         <v>5.566666666666666</v>
       </c>
-      <c r="X45" t="n">
+      <c r="Z45" t="n">
         <v>0.3721076015752325</v>
       </c>
     </row>
@@ -3828,9 +4102,15 @@
         <v>2.9645816592752</v>
       </c>
       <c r="W46" t="n">
+        <v>0.4930860805860806</v>
+      </c>
+      <c r="X46" t="n">
+        <v>1.356277617020229</v>
+      </c>
+      <c r="Y46" t="n">
         <v>5.533333333333334</v>
       </c>
-      <c r="X46" t="n">
+      <c r="Z46" t="n">
         <v>0.4143405207332206</v>
       </c>
     </row>
@@ -3904,9 +4184,15 @@
         <v>4.585591585422436</v>
       </c>
       <c r="W47" t="n">
+        <v>0.6498443223443229</v>
+      </c>
+      <c r="X47" t="n">
+        <v>1.571612376995801</v>
+      </c>
+      <c r="Y47" t="n">
         <v>5.5</v>
       </c>
-      <c r="X47" t="n">
+      <c r="Z47" t="n">
         <v>0.5776702521823834</v>
       </c>
     </row>
@@ -3980,9 +4266,15 @@
         <v>0.8276724754031047</v>
       </c>
       <c r="W48" t="n">
+        <v>0.6659510869565224</v>
+      </c>
+      <c r="X48" t="n">
+        <v>1.656144073704366</v>
+      </c>
+      <c r="Y48" t="n">
         <v>5.266666666666667</v>
       </c>
-      <c r="X48" t="n">
+      <c r="Z48" t="n">
         <v>0.2269927708221068</v>
       </c>
     </row>
@@ -4056,9 +4348,15 @@
         <v>-0.5312881446293959</v>
       </c>
       <c r="W49" t="n">
+        <v>0.6131159420289864</v>
+      </c>
+      <c r="X49" t="n">
+        <v>1.406354671425849</v>
+      </c>
+      <c r="Y49" t="n">
         <v>5.333333333333333</v>
       </c>
-      <c r="X49" t="n">
+      <c r="Z49" t="n">
         <v>-0.05740889823699988</v>
       </c>
     </row>
@@ -4132,9 +4430,15 @@
         <v>0.825233094667669</v>
       </c>
       <c r="W50" t="n">
+        <v>0.6153888888888899</v>
+      </c>
+      <c r="X50" t="n">
+        <v>1.180647927875349</v>
+      </c>
+      <c r="Y50" t="n">
         <v>5.233333333333333</v>
       </c>
-      <c r="X50" t="n">
+      <c r="Z50" t="n">
         <v>0.117688842325689</v>
       </c>
     </row>
@@ -4208,9 +4512,15 @@
         <v>1.745752802405697</v>
       </c>
       <c r="W51" t="n">
+        <v>0.5961172161172166</v>
+      </c>
+      <c r="X51" t="n">
+        <v>1.424337088689091</v>
+      </c>
+      <c r="Y51" t="n">
         <v>5</v>
       </c>
-      <c r="X51" t="n">
+      <c r="Z51" t="n">
         <v>0.3426034466506157</v>
       </c>
     </row>
@@ -4284,9 +4594,15 @@
         <v>1.318070658080374</v>
       </c>
       <c r="W52" t="n">
+        <v>0.5271648550724641</v>
+      </c>
+      <c r="X52" t="n">
+        <v>2.322965781594291</v>
+      </c>
+      <c r="Y52" t="n">
         <v>4.866666666666666</v>
       </c>
-      <c r="X52" t="n">
+      <c r="Z52" t="n">
         <v>0.7315284458661117</v>
       </c>
     </row>
@@ -4360,9 +4676,15 @@
         <v>1.749480286228099</v>
       </c>
       <c r="W53" t="n">
+        <v>0.4906521739130436</v>
+      </c>
+      <c r="X53" t="n">
+        <v>1.007127150844211</v>
+      </c>
+      <c r="Y53" t="n">
         <v>4.666666666666667</v>
       </c>
-      <c r="X53" t="n">
+      <c r="Z53" t="n">
         <v>1.385534799606143</v>
       </c>
     </row>
@@ -4436,9 +4758,15 @@
         <v>2.048798130833951</v>
       </c>
       <c r="W54" t="n">
+        <v>0.4251666666666665</v>
+      </c>
+      <c r="X54" t="n">
+        <v>1.430647922414338</v>
+      </c>
+      <c r="Y54" t="n">
         <v>4.633333333333333</v>
       </c>
-      <c r="X54" t="n">
+      <c r="Z54" t="n">
         <v>1.743426204920883</v>
       </c>
     </row>
@@ -4512,9 +4840,15 @@
         <v>3.632849373532128</v>
       </c>
       <c r="W55" t="n">
+        <v>0.4264652014652011</v>
+      </c>
+      <c r="X55" t="n">
+        <v>2.077073107508811</v>
+      </c>
+      <c r="Y55" t="n">
         <v>4.399999999999999</v>
       </c>
-      <c r="X55" t="n">
+      <c r="Z55" t="n">
         <v>1.109905120406505</v>
       </c>
     </row>
@@ -4588,9 +4922,15 @@
         <v>3.938332800037537</v>
       </c>
       <c r="W56" t="n">
+        <v>0.3879257246376813</v>
+      </c>
+      <c r="X56" t="n">
+        <v>1.93886886274309</v>
+      </c>
+      <c r="Y56" t="n">
         <v>4.533333333333333</v>
       </c>
-      <c r="X56" t="n">
+      <c r="Z56" t="n">
         <v>1.201081448069693</v>
       </c>
     </row>
@@ -4664,9 +5004,15 @@
         <v>3.298649899630645</v>
       </c>
       <c r="W57" t="n">
+        <v>0.5048641304347825</v>
+      </c>
+      <c r="X57" t="n">
+        <v>2.304719006103026</v>
+      </c>
+      <c r="Y57" t="n">
         <v>4.433333333333334</v>
       </c>
-      <c r="X57" t="n">
+      <c r="Z57" t="n">
         <v>0.1100809646699899</v>
       </c>
     </row>
@@ -4740,9 +5086,15 @@
         <v>1.585205734328175</v>
       </c>
       <c r="W58" t="n">
+        <v>0.5521944444444442</v>
+      </c>
+      <c r="X58" t="n">
+        <v>1.927781765140204</v>
+      </c>
+      <c r="Y58" t="n">
         <v>4.3</v>
       </c>
-      <c r="X58" t="n">
+      <c r="Z58" t="n">
         <v>1.272784676290975</v>
       </c>
     </row>
@@ -4816,9 +5168,15 @@
         <v>2.154224042221118</v>
       </c>
       <c r="W59" t="n">
+        <v>0.586410256410256</v>
+      </c>
+      <c r="X59" t="n">
+        <v>2.323456692645795</v>
+      </c>
+      <c r="Y59" t="n">
         <v>4.266666666666667</v>
       </c>
-      <c r="X59" t="n">
+      <c r="Z59" t="n">
         <v>-0.2006224204571036</v>
       </c>
     </row>
@@ -4892,9 +5250,15 @@
         <v>1.667292350478271</v>
       </c>
       <c r="W60" t="n">
+        <v>0.6052807971014489</v>
+      </c>
+      <c r="X60" t="n">
+        <v>2.774187356268646</v>
+      </c>
+      <c r="Y60" t="n">
         <v>4.233333333333333</v>
       </c>
-      <c r="X60" t="n">
+      <c r="Z60" t="n">
         <v>0.4878018079382341</v>
       </c>
     </row>
@@ -4968,9 +5332,15 @@
         <v>2.005830937517215</v>
       </c>
       <c r="W61" t="n">
+        <v>0.5689945652173918</v>
+      </c>
+      <c r="X61" t="n">
+        <v>1.864078036767872</v>
+      </c>
+      <c r="Y61" t="n">
         <v>4.066666666666666</v>
       </c>
-      <c r="X61" t="n">
+      <c r="Z61" t="n">
         <v>1.685107691738291</v>
       </c>
     </row>
@@ -5044,9 +5414,15 @@
         <v>2.502102804443519</v>
       </c>
       <c r="W62" t="n">
+        <v>0.5647435897435895</v>
+      </c>
+      <c r="X62" t="n">
+        <v>1.393692804223548</v>
+      </c>
+      <c r="Y62" t="n">
         <v>4.033333333333333</v>
       </c>
-      <c r="X62" t="n">
+      <c r="Z62" t="n">
         <v>2.873502365231436</v>
       </c>
     </row>
@@ -5120,9 +5496,15 @@
         <v>0.2889854184104569</v>
       </c>
       <c r="W63" t="n">
+        <v>0.4561721611721612</v>
+      </c>
+      <c r="X63" t="n">
+        <v>2.458237156983756</v>
+      </c>
+      <c r="Y63" t="n">
         <v>3.933333333333334</v>
       </c>
-      <c r="X63" t="n">
+      <c r="Z63" t="n">
         <v>-0.1849822526799591</v>
       </c>
     </row>
@@ -5196,9 +5578,15 @@
         <v>-1.003912502832854</v>
       </c>
       <c r="W64" t="n">
+        <v>0.3718025362318842</v>
+      </c>
+      <c r="X64" t="n">
+        <v>2.444978016499623</v>
+      </c>
+      <c r="Y64" t="n">
         <v>4</v>
       </c>
-      <c r="X64" t="n">
+      <c r="Z64" t="n">
         <v>1.482439099860601</v>
       </c>
     </row>
@@ -5272,9 +5660,15 @@
         <v>0.9372976452567761</v>
       </c>
       <c r="W65" t="n">
+        <v>0.319610507246376</v>
+      </c>
+      <c r="X65" t="n">
+        <v>2.000984498798462</v>
+      </c>
+      <c r="Y65" t="n">
         <v>3.9</v>
       </c>
-      <c r="X65" t="n">
+      <c r="Z65" t="n">
         <v>0.08442339646907653</v>
       </c>
     </row>
@@ -5348,9 +5742,15 @@
         <v>1.783206304244651</v>
       </c>
       <c r="W66" t="n">
+        <v>0.3999166666666676</v>
+      </c>
+      <c r="X66" t="n">
+        <v>1.755115980828378</v>
+      </c>
+      <c r="Y66" t="n">
         <v>4.233333333333333</v>
       </c>
-      <c r="X66" t="n">
+      <c r="Z66" t="n">
         <v>1.573522145657626</v>
       </c>
     </row>
@@ -5424,9 +5824,15 @@
         <v>2.605940506933865</v>
       </c>
       <c r="W67" t="n">
+        <v>0.7041575091575094</v>
+      </c>
+      <c r="X67" t="n">
+        <v>3.226908585445039</v>
+      </c>
+      <c r="Y67" t="n">
         <v>4.399999999999999</v>
       </c>
-      <c r="X67" t="n">
+      <c r="Z67" t="n">
         <v>-0.3884383569649729</v>
       </c>
     </row>
@@ -5500,9 +5906,15 @@
         <v>2.207595169919983</v>
       </c>
       <c r="W68" t="n">
+        <v>0.8896195652173914</v>
+      </c>
+      <c r="X68" t="n">
+        <v>2.956962076923184</v>
+      </c>
+      <c r="Y68" t="n">
         <v>4.833333333333333</v>
       </c>
-      <c r="X68" t="n">
+      <c r="Z68" t="n">
         <v>0.02086459700051597</v>
       </c>
     </row>
@@ -5576,9 +5988,15 @@
         <v>-0.1664932746722196</v>
       </c>
       <c r="W69" t="n">
+        <v>1.144057971014493</v>
+      </c>
+      <c r="X69" t="n">
+        <v>2.106507940897485</v>
+      </c>
+      <c r="Y69" t="n">
         <v>5.5</v>
       </c>
-      <c r="X69" t="n">
+      <c r="Z69" t="n">
         <v>0.7072959362869223</v>
       </c>
     </row>
@@ -5652,9 +6070,15 @@
         <v>2.42810282643994</v>
       </c>
       <c r="W70" t="n">
+        <v>1.280111111111111</v>
+      </c>
+      <c r="X70" t="n">
+        <v>2.556290508934249</v>
+      </c>
+      <c r="Y70" t="n">
         <v>5.7</v>
       </c>
-      <c r="X70" t="n">
+      <c r="Z70" t="n">
         <v>0.6798898102746526</v>
       </c>
     </row>
@@ -5728,9 +6152,15 @@
         <v>2.944629376628077</v>
       </c>
       <c r="W71" t="n">
+        <v>1.260448717948718</v>
+      </c>
+      <c r="X71" t="n">
+        <v>3.193849598429004</v>
+      </c>
+      <c r="Y71" t="n">
         <v>5.833333333333333</v>
       </c>
-      <c r="X71" t="n">
+      <c r="Z71" t="n">
         <v>0.5096949546853069</v>
       </c>
     </row>
@@ -5804,9 +6234,15 @@
         <v>0.9625847824106198</v>
       </c>
       <c r="W72" t="n">
+        <v>1.163115942028986</v>
+      </c>
+      <c r="X72" t="n">
+        <v>3.382704536301659</v>
+      </c>
+      <c r="Y72" t="n">
         <v>5.733333333333333</v>
       </c>
-      <c r="X72" t="n">
+      <c r="Z72" t="n">
         <v>0.09762394751077999</v>
       </c>
     </row>
@@ -5880,9 +6316,15 @@
         <v>3.193807432120631</v>
       </c>
       <c r="W73" t="n">
+        <v>1.164773550724638</v>
+      </c>
+      <c r="X73" t="n">
+        <v>3.335926404035621</v>
+      </c>
+      <c r="Y73" t="n">
         <v>5.866666666666667</v>
       </c>
-      <c r="X73" t="n">
+      <c r="Z73" t="n">
         <v>-0.1045100727625941</v>
       </c>
     </row>
@@ -5956,9 +6398,15 @@
         <v>3.186704010949004</v>
       </c>
       <c r="W74" t="n">
+        <v>1.16175</v>
+      </c>
+      <c r="X74" t="n">
+        <v>2.883834431706596</v>
+      </c>
+      <c r="Y74" t="n">
         <v>5.866666666666667</v>
       </c>
-      <c r="X74" t="n">
+      <c r="Z74" t="n">
         <v>0.8786217784293378</v>
       </c>
     </row>
@@ -6032,9 +6480,15 @@
         <v>2.302703502910492</v>
       </c>
       <c r="W75" t="n">
+        <v>1.08915750915751</v>
+      </c>
+      <c r="X75" t="n">
+        <v>4.092584021883129</v>
+      </c>
+      <c r="Y75" t="n">
         <v>6.133333333333333</v>
       </c>
-      <c r="X75" t="n">
+      <c r="Z75" t="n">
         <v>1.407307788785062</v>
       </c>
     </row>
@@ -6108,9 +6562,15 @@
         <v>5.611227921164054</v>
       </c>
       <c r="W76" t="n">
+        <v>1.165788043478261</v>
+      </c>
+      <c r="X76" t="n">
+        <v>3.700284309245446</v>
+      </c>
+      <c r="Y76" t="n">
         <v>6.133333333333333</v>
       </c>
-      <c r="X76" t="n">
+      <c r="Z76" t="n">
         <v>0.835858064210331</v>
       </c>
     </row>
@@ -6184,9 +6644,15 @@
         <v>4.522509800493581</v>
       </c>
       <c r="W77" t="n">
+        <v>1.208315217391304</v>
+      </c>
+      <c r="X77" t="n">
+        <v>3.053349690820164</v>
+      </c>
+      <c r="Y77" t="n">
         <v>5.833333333333333</v>
       </c>
-      <c r="X77" t="n">
+      <c r="Z77" t="n">
         <v>0.2926046176816195</v>
       </c>
     </row>
@@ -6260,9 +6726,15 @@
         <v>3.219401540794649</v>
       </c>
       <c r="W78" t="n">
+        <v>1.154532967032967</v>
+      </c>
+      <c r="X78" t="n">
+        <v>2.442215663267359</v>
+      </c>
+      <c r="Y78" t="n">
         <v>5.7</v>
       </c>
-      <c r="X78" t="n">
+      <c r="Z78" t="n">
         <v>-1.324006255616792</v>
       </c>
     </row>
@@ -6336,9 +6808,15 @@
         <v>5.789005745763967</v>
       </c>
       <c r="W79" t="n">
+        <v>1.178003663003663</v>
+      </c>
+      <c r="X79" t="n">
+        <v>3.778850455339486</v>
+      </c>
+      <c r="Y79" t="n">
         <v>5.599999999999999</v>
       </c>
-      <c r="X79" t="n">
+      <c r="Z79" t="n">
         <v>0.5542861517314714</v>
       </c>
     </row>
@@ -6412,9 +6890,15 @@
         <v>3.061017299825585</v>
       </c>
       <c r="W80" t="n">
+        <v>1.098976449275362</v>
+      </c>
+      <c r="X80" t="n">
+        <v>3.243024438646115</v>
+      </c>
+      <c r="Y80" t="n">
         <v>5.433333333333334</v>
       </c>
-      <c r="X80" t="n">
+      <c r="Z80" t="n">
         <v>0.870053503140498</v>
       </c>
     </row>
@@ -6488,9 +6972,15 @@
         <v>2.270889523983484</v>
       </c>
       <c r="W81" t="n">
+        <v>0.9550271739130435</v>
+      </c>
+      <c r="X81" t="n">
+        <v>3.328424582974502</v>
+      </c>
+      <c r="Y81" t="n">
         <v>5.433333333333334</v>
       </c>
-      <c r="X81" t="n">
+      <c r="Z81" t="n">
         <v>0.06841565101537322</v>
       </c>
     </row>
@@ -6564,9 +7054,15 @@
         <v>3.067810016923482</v>
       </c>
       <c r="W82" t="n">
+        <v>0.8302499999999997</v>
+      </c>
+      <c r="X82" t="n">
+        <v>2.703413482439003</v>
+      </c>
+      <c r="Y82" t="n">
         <v>5.266666666666667</v>
       </c>
-      <c r="X82" t="n">
+      <c r="Z82" t="n">
         <v>-0.1570930570968357</v>
       </c>
     </row>
@@ -6640,9 +7136,15 @@
         <v>3.962367202814642</v>
       </c>
       <c r="W83" t="n">
+        <v>0.7203937728937729</v>
+      </c>
+      <c r="X83" t="n">
+        <v>3.43869398959077</v>
+      </c>
+      <c r="Y83" t="n">
         <v>5.133333333333334</v>
       </c>
-      <c r="X83" t="n">
+      <c r="Z83" t="n">
         <v>0.05899602191465735</v>
       </c>
     </row>
@@ -6716,9 +7218,15 @@
         <v>3.609665538721766</v>
       </c>
       <c r="W84" t="n">
+        <v>0.5941666666666664</v>
+      </c>
+      <c r="X84" t="n">
+        <v>3.391335399011536</v>
+      </c>
+      <c r="Y84" t="n">
         <v>4.966666666666667</v>
       </c>
-      <c r="X84" t="n">
+      <c r="Z84" t="n">
         <v>0.3537434252962114</v>
       </c>
     </row>
@@ -6792,9 +7300,15 @@
         <v>1.911960772932828</v>
       </c>
       <c r="W85" t="n">
+        <v>0.557934782608696</v>
+      </c>
+      <c r="X85" t="n">
+        <v>2.918458922592683</v>
+      </c>
+      <c r="Y85" t="n">
         <v>4.933333333333334</v>
       </c>
-      <c r="X85" t="n">
+      <c r="Z85" t="n">
         <v>-0.2841729381919869</v>
       </c>
     </row>
@@ -6868,9 +7382,15 @@
         <v>0.6661756687066653</v>
       </c>
       <c r="W86" t="n">
+        <v>0.4848055555555564</v>
+      </c>
+      <c r="X86" t="n">
+        <v>3.299154487576608</v>
+      </c>
+      <c r="Y86" t="n">
         <v>4.733333333333333</v>
       </c>
-      <c r="X86" t="n">
+      <c r="Z86" t="n">
         <v>0.5922682521558574</v>
       </c>
     </row>
@@ -6944,9 +7464,15 @@
         <v>-3.618095085053826</v>
       </c>
       <c r="W87" t="n">
+        <v>0.4356043956043951</v>
+      </c>
+      <c r="X87" t="n">
+        <v>3.270203388442527</v>
+      </c>
+      <c r="Y87" t="n">
         <v>4.666666666666667</v>
       </c>
-      <c r="X87" t="n">
+      <c r="Z87" t="n">
         <v>-0.3625624765729431</v>
       </c>
     </row>
@@ -7020,9 +7546,15 @@
         <v>-5.597424557967874</v>
       </c>
       <c r="W88" t="n">
+        <v>0.3803351449275361</v>
+      </c>
+      <c r="X88" t="n">
+        <v>2.452670051098675</v>
+      </c>
+      <c r="Y88" t="n">
         <v>4.633333333333334</v>
       </c>
-      <c r="X88" t="n">
+      <c r="Z88" t="n">
         <v>-0.4086285672709357</v>
       </c>
     </row>
@@ -7096,9 +7628,15 @@
         <v>-4.63595220847842</v>
       </c>
       <c r="W89" t="n">
+        <v>0.3200996376811596</v>
+      </c>
+      <c r="X89" t="n">
+        <v>1.561745592277124</v>
+      </c>
+      <c r="Y89" t="n">
         <v>4.433333333333334</v>
       </c>
-      <c r="X89" t="n">
+      <c r="Z89" t="n">
         <v>1.714879675359611</v>
       </c>
     </row>
@@ -7172,9 +7710,15 @@
         <v>-4.049252848757594</v>
       </c>
       <c r="W90" t="n">
+        <v>0.2855277777777772</v>
+      </c>
+      <c r="X90" t="n">
+        <v>1.985720555225968</v>
+      </c>
+      <c r="Y90" t="n">
         <v>4.5</v>
       </c>
-      <c r="X90" t="n">
+      <c r="Z90" t="n">
         <v>0.1031395160449592</v>
       </c>
     </row>
@@ -7248,9 +7792,15 @@
         <v>-3.730490243232172</v>
       </c>
       <c r="W91" t="n">
+        <v>0.2968956043956039</v>
+      </c>
+      <c r="X91" t="n">
+        <v>2.009313040563272</v>
+      </c>
+      <c r="Y91" t="n">
         <v>4.533333333333333</v>
       </c>
-      <c r="X91" t="n">
+      <c r="Z91" t="n">
         <v>-0.1542698105039519</v>
       </c>
     </row>
@@ -7324,9 +7874,15 @@
         <v>-6.219049377310645</v>
       </c>
       <c r="W92" t="n">
+        <v>0.4147463768115944</v>
+      </c>
+      <c r="X92" t="n">
+        <v>1.466721578856795</v>
+      </c>
+      <c r="Y92" t="n">
         <v>4.7</v>
       </c>
-      <c r="X92" t="n">
+      <c r="Z92" t="n">
         <v>0.2567767678574419</v>
       </c>
     </row>
@@ -7400,9 +7956,15 @@
         <v>-8.541775115435177</v>
       </c>
       <c r="W93" t="n">
+        <v>0.480253623188406</v>
+      </c>
+      <c r="X93" t="n">
+        <v>1.142426764255193</v>
+      </c>
+      <c r="Y93" t="n">
         <v>4.8</v>
       </c>
-      <c r="X93" t="n">
+      <c r="Z93" t="n">
         <v>0.6534733065439211</v>
       </c>
     </row>
@@ -7476,9 +8038,15 @@
         <v>-8.701137698962981</v>
       </c>
       <c r="W94" t="n">
+        <v>0.7096428571428575</v>
+      </c>
+      <c r="X94" t="n">
+        <v>0.6990711183999552</v>
+      </c>
+      <c r="Y94" t="n">
         <v>4.933333333333333</v>
       </c>
-      <c r="X94" t="n">
+      <c r="Z94" t="n">
         <v>-0.05454483292428998</v>
       </c>
     </row>
@@ -7552,9 +8120,15 @@
         <v>-4.722798026623292</v>
       </c>
       <c r="W95" t="n">
+        <v>1.009652014652014</v>
+      </c>
+      <c r="X95" t="n">
+        <v>-0.03901832214169923</v>
+      </c>
+      <c r="Y95" t="n">
         <v>5.366666666666667</v>
       </c>
-      <c r="X95" t="n">
+      <c r="Z95" t="n">
         <v>-0.1196851139522223</v>
       </c>
     </row>
@@ -7628,9 +8202,15 @@
         <v>-5.319076748081435</v>
       </c>
       <c r="W96" t="n">
+        <v>1.112336956521739</v>
+      </c>
+      <c r="X96" t="n">
+        <v>-0.3419194141507763</v>
+      </c>
+      <c r="Y96" t="n">
         <v>6.066666666666666</v>
       </c>
-      <c r="X96" t="n">
+      <c r="Z96" t="n">
         <v>0.1195313852514801</v>
       </c>
     </row>
@@ -7704,9 +8284,15 @@
         <v>-9.109372942539009</v>
       </c>
       <c r="W97" t="n">
+        <v>1.378668478260869</v>
+      </c>
+      <c r="X97" t="n">
+        <v>-0.7136561296930838</v>
+      </c>
+      <c r="Y97" t="n">
         <v>6.866666666666666</v>
       </c>
-      <c r="X97" t="n">
+      <c r="Z97" t="n">
         <v>0.6884937614143962</v>
       </c>
     </row>
@@ -7780,9 +8366,15 @@
         <v>-13.27970066383171</v>
       </c>
       <c r="W98" t="n">
+        <v>1.242222222222222</v>
+      </c>
+      <c r="X98" t="n">
+        <v>-0.003524898885789755</v>
+      </c>
+      <c r="Y98" t="n">
         <v>8.066666666666666</v>
       </c>
-      <c r="X98" t="n">
+      <c r="Z98" t="n">
         <v>-1.663510808814617</v>
       </c>
     </row>
@@ -7856,9 +8448,15 @@
         <v>-7.970907406686524</v>
       </c>
       <c r="W99" t="n">
+        <v>1.211327838827839</v>
+      </c>
+      <c r="X99" t="n">
+        <v>-0.3309406478507456</v>
+      </c>
+      <c r="Y99" t="n">
         <v>9.266666666666667</v>
       </c>
-      <c r="X99" t="n">
+      <c r="Z99" t="n">
         <v>0.08853890747293923</v>
       </c>
     </row>
@@ -7930,9 +8528,13 @@
         <v>4.245119570561991</v>
       </c>
       <c r="W100" t="n">
+        <v>1.288079710144928</v>
+      </c>
+      <c r="X100" t="inlineStr"/>
+      <c r="Y100" t="n">
         <v>9.633333333333335</v>
       </c>
-      <c r="X100" t="n">
+      <c r="Z100" t="n">
         <v>0.7274649914078629</v>
       </c>
     </row>
@@ -7947,7 +8549,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X101"/>
+  <dimension ref="A1:Z101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8063,10 +8665,20 @@
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
+          <t>mortffr_obs</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>mortgage_nom_obs</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
           <t>unr_obs</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>wage_rgd_obs</t>
         </is>
@@ -8140,9 +8752,15 @@
         <v>0.163800200423837</v>
       </c>
       <c r="W2" t="n">
+        <v>0.970388888888889</v>
+      </c>
+      <c r="X2" t="n">
+        <v>4.838279261661252</v>
+      </c>
+      <c r="Y2" t="n">
         <v>7.233333333333333</v>
       </c>
-      <c r="X2" t="n">
+      <c r="Z2" t="n">
         <v>0.0585619023566217</v>
       </c>
     </row>
@@ -8214,9 +8832,15 @@
         <v>0.9772064733792302</v>
       </c>
       <c r="W3" t="n">
+        <v>1.014734432234433</v>
+      </c>
+      <c r="X3" t="n">
+        <v>2.887889102968135</v>
+      </c>
+      <c r="Y3" t="n">
         <v>7.3</v>
       </c>
-      <c r="X3" t="n">
+      <c r="Z3" t="n">
         <v>0.2561233676117278</v>
       </c>
     </row>
@@ -8288,9 +8912,15 @@
         <v>1.979203413194857</v>
       </c>
       <c r="W4" t="n">
+        <v>0.8547554347826087</v>
+      </c>
+      <c r="X4" t="n">
+        <v>4.283328736272085</v>
+      </c>
+      <c r="Y4" t="n">
         <v>7.2</v>
       </c>
-      <c r="X4" t="n">
+      <c r="Z4" t="n">
         <v>0.9294994864702675</v>
       </c>
     </row>
@@ -8362,9 +8992,15 @@
         <v>3.487212571402014</v>
       </c>
       <c r="W5" t="n">
+        <v>0.7705525362318832</v>
+      </c>
+      <c r="X5" t="n">
+        <v>3.377405381157359</v>
+      </c>
+      <c r="Y5" t="n">
         <v>7.033333333333334</v>
       </c>
-      <c r="X5" t="n">
+      <c r="Z5" t="n">
         <v>1.136886190987389</v>
       </c>
     </row>
@@ -8436,9 +9072,15 @@
         <v>5.377104065178582</v>
       </c>
       <c r="W6" t="n">
+        <v>0.7299444444444461</v>
+      </c>
+      <c r="X6" t="n">
+        <v>1.821793037383781</v>
+      </c>
+      <c r="Y6" t="n">
         <v>7.033333333333334</v>
       </c>
-      <c r="X6" t="n">
+      <c r="Z6" t="n">
         <v>0.8024461665134646</v>
       </c>
     </row>
@@ -8510,9 +9152,15 @@
         <v>6.338662189231478</v>
       </c>
       <c r="W7" t="n">
+        <v>0.8312179487179467</v>
+      </c>
+      <c r="X7" t="n">
+        <v>3.266066946893799</v>
+      </c>
+      <c r="Y7" t="n">
         <v>7.166666666666667</v>
       </c>
-      <c r="X7" t="n">
+      <c r="Z7" t="n">
         <v>0.4574238561276663</v>
       </c>
     </row>
@@ -8584,9 +9232,15 @@
         <v>2.825933731440306</v>
       </c>
       <c r="W8" t="n">
+        <v>0.9993025362318846</v>
+      </c>
+      <c r="X8" t="n">
+        <v>3.995249609571855</v>
+      </c>
+      <c r="Y8" t="n">
         <v>6.966666666666666</v>
       </c>
-      <c r="X8" t="n">
+      <c r="Z8" t="n">
         <v>0.5089154227391779</v>
       </c>
     </row>
@@ -8658,9 +9312,15 @@
         <v>0.9683174251825857</v>
       </c>
       <c r="W9" t="n">
+        <v>0.8933152173913048</v>
+      </c>
+      <c r="X9" t="n">
+        <v>3.767756284239854</v>
+      </c>
+      <c r="Y9" t="n">
         <v>6.833333333333333</v>
       </c>
-      <c r="X9" t="n">
+      <c r="Z9" t="n">
         <v>0.535950991194442</v>
       </c>
     </row>
@@ -8732,9 +9392,15 @@
         <v>0.7853443505570304</v>
       </c>
       <c r="W10" t="n">
+        <v>0.7668611111111105</v>
+      </c>
+      <c r="X10" t="n">
+        <v>1.947735118636464</v>
+      </c>
+      <c r="Y10" t="n">
         <v>6.599999999999999</v>
       </c>
-      <c r="X10" t="n">
+      <c r="Z10" t="n">
         <v>-0.2790726782977443</v>
       </c>
     </row>
@@ -8806,9 +9472,15 @@
         <v>1.209517984897514</v>
       </c>
       <c r="W11" t="n">
+        <v>0.6541666666666672</v>
+      </c>
+      <c r="X11" t="n">
+        <v>4.147767327829527</v>
+      </c>
+      <c r="Y11" t="n">
         <v>6.266666666666667</v>
       </c>
-      <c r="X11" t="n">
+      <c r="Z11" t="n">
         <v>0.1112838271730546</v>
       </c>
     </row>
@@ -8880,9 +9552,15 @@
         <v>0.5566274273321643</v>
       </c>
       <c r="W12" t="n">
+        <v>0.6326086956521739</v>
+      </c>
+      <c r="X12" t="n">
+        <v>2.826774900665543</v>
+      </c>
+      <c r="Y12" t="n">
         <v>6</v>
       </c>
-      <c r="X12" t="n">
+      <c r="Z12" t="n">
         <v>0.2338340968445509</v>
       </c>
     </row>
@@ -8954,9 +9632,15 @@
         <v>1.399217231107909</v>
       </c>
       <c r="W13" t="n">
+        <v>0.5842481884057971</v>
+      </c>
+      <c r="X13" t="n">
+        <v>1.41489184132428</v>
+      </c>
+      <c r="Y13" t="n">
         <v>5.833333333333333</v>
       </c>
-      <c r="X13" t="n">
+      <c r="Z13" t="n">
         <v>0.4288254204660166</v>
       </c>
     </row>
@@ -9028,9 +9712,15 @@
         <v>-1.31385657718383</v>
       </c>
       <c r="W14" t="n">
+        <v>0.6285164835164825</v>
+      </c>
+      <c r="X14" t="n">
+        <v>2.538290967561651</v>
+      </c>
+      <c r="Y14" t="n">
         <v>5.7</v>
       </c>
-      <c r="X14" t="n">
+      <c r="Z14" t="n">
         <v>0.9604147122408058</v>
       </c>
     </row>
@@ -9102,9 +9792,15 @@
         <v>1.692087748833718</v>
       </c>
       <c r="W15" t="n">
+        <v>0.5179304029304042</v>
+      </c>
+      <c r="X15" t="n">
+        <v>3.489634163901059</v>
+      </c>
+      <c r="Y15" t="n">
         <v>5.466666666666666</v>
       </c>
-      <c r="X15" t="n">
+      <c r="Z15" t="n">
         <v>0.2133605501158805</v>
       </c>
     </row>
@@ -9176,9 +9872,15 @@
         <v>0.6688988150796489</v>
       </c>
       <c r="W16" t="n">
+        <v>0.3266304347826092</v>
+      </c>
+      <c r="X16" t="n">
+        <v>2.91823679065083</v>
+      </c>
+      <c r="Y16" t="n">
         <v>5.466666666666666</v>
       </c>
-      <c r="X16" t="n">
+      <c r="Z16" t="n">
         <v>-0.02583299344620927</v>
       </c>
     </row>
@@ -9250,9 +9952,15 @@
         <v>1.816730395544893</v>
       </c>
       <c r="W17" t="n">
+        <v>0.2487137681159424</v>
+      </c>
+      <c r="X17" t="n">
+        <v>2.726497326586302</v>
+      </c>
+      <c r="Y17" t="n">
         <v>5.333333333333333</v>
       </c>
-      <c r="X17" t="n">
+      <c r="Z17" t="n">
         <v>-0.1606901132240531</v>
       </c>
     </row>
@@ -9324,9 +10032,15 @@
         <v>0.08179959556317626</v>
       </c>
       <c r="W18" t="n">
+        <v>0.08588888888888979</v>
+      </c>
+      <c r="X18" t="n">
+        <v>1.643544561454601</v>
+      </c>
+      <c r="Y18" t="n">
         <v>5.2</v>
       </c>
-      <c r="X18" t="n">
+      <c r="Z18" t="n">
         <v>-0.7871523321403552</v>
       </c>
     </row>
@@ -9398,9 +10112,15 @@
         <v>-1.815231360718883</v>
       </c>
       <c r="W19" t="n">
+        <v>0.1560714285714275</v>
+      </c>
+      <c r="X19" t="n">
+        <v>2.721931283633474</v>
+      </c>
+      <c r="Y19" t="n">
         <v>5.233333333333333</v>
       </c>
-      <c r="X19" t="n">
+      <c r="Z19" t="n">
         <v>-0.718270759276684</v>
       </c>
     </row>
@@ -9472,9 +10192,15 @@
         <v>-0.7521974454688446</v>
       </c>
       <c r="W20" t="n">
+        <v>0.2882699275362324</v>
+      </c>
+      <c r="X20" t="n">
+        <v>2.947527669609471</v>
+      </c>
+      <c r="Y20" t="n">
         <v>5.233333333333333</v>
       </c>
-      <c r="X20" t="n">
+      <c r="Z20" t="n">
         <v>0.1213990856734398</v>
       </c>
     </row>
@@ -9546,9 +10272,15 @@
         <v>-1.521584723725332</v>
       </c>
       <c r="W21" t="n">
+        <v>0.3705525362318833</v>
+      </c>
+      <c r="X21" t="n">
+        <v>2.213323210101831</v>
+      </c>
+      <c r="Y21" t="n">
         <v>5.366666666666667</v>
       </c>
-      <c r="X21" t="n">
+      <c r="Z21" t="n">
         <v>0.7056477911718986</v>
       </c>
     </row>
@@ -9620,9 +10352,15 @@
         <v>1.856593412253519</v>
       </c>
       <c r="W22" t="n">
+        <v>0.4446666666666679</v>
+      </c>
+      <c r="X22" t="n">
+        <v>3.257750385284998</v>
+      </c>
+      <c r="Y22" t="n">
         <v>5.3</v>
       </c>
-      <c r="X22" t="n">
+      <c r="Z22" t="n">
         <v>0.7077631708862511</v>
       </c>
     </row>
@@ -9694,9 +10432,15 @@
         <v>-3.531530571602695</v>
       </c>
       <c r="W23" t="n">
+        <v>0.4802481684981683</v>
+      </c>
+      <c r="X23" t="n">
+        <v>2.560864642558711</v>
+      </c>
+      <c r="Y23" t="n">
         <v>5.333333333333333</v>
       </c>
-      <c r="X23" t="n">
+      <c r="Z23" t="n">
         <v>0.9744668559119278</v>
       </c>
     </row>
@@ -9768,9 +10512,15 @@
         <v>-5.382664581262346</v>
       </c>
       <c r="W24" t="n">
+        <v>0.4706123188405811</v>
+      </c>
+      <c r="X24" t="n">
+        <v>2.122346525019553</v>
+      </c>
+      <c r="Y24" t="n">
         <v>5.7</v>
       </c>
-      <c r="X24" t="n">
+      <c r="Z24" t="n">
         <v>0.6411849710942379</v>
       </c>
     </row>
@@ -9842,9 +10592,15 @@
         <v>-5.543927728245711</v>
       </c>
       <c r="W25" t="n">
+        <v>0.5443242753623196</v>
+      </c>
+      <c r="X25" t="n">
+        <v>1.724470643360993</v>
+      </c>
+      <c r="Y25" t="n">
         <v>6.133333333333334</v>
       </c>
-      <c r="X25" t="n">
+      <c r="Z25" t="n">
         <v>0.08500740390188948</v>
       </c>
     </row>
@@ -9916,9 +10672,15 @@
         <v>-5.869411928637701</v>
       </c>
       <c r="W26" t="n">
+        <v>0.8115555555555565</v>
+      </c>
+      <c r="X26" t="n">
+        <v>1.59167876108484</v>
+      </c>
+      <c r="Y26" t="n">
         <v>6.600000000000001</v>
       </c>
-      <c r="X26" t="n">
+      <c r="Z26" t="n">
         <v>-0.1980533355639446</v>
       </c>
     </row>
@@ -9990,9 +10752,15 @@
         <v>2.778658182330028</v>
       </c>
       <c r="W27" t="n">
+        <v>0.9039835164835168</v>
+      </c>
+      <c r="X27" t="n">
+        <v>2.382521088255797</v>
+      </c>
+      <c r="Y27" t="n">
         <v>6.833333333333333</v>
       </c>
-      <c r="X27" t="n">
+      <c r="Z27" t="n">
         <v>1.206690169757592</v>
       </c>
     </row>
@@ -10064,9 +10832,15 @@
         <v>4.67238269063617</v>
       </c>
       <c r="W28" t="n">
+        <v>0.9203623188405803</v>
+      </c>
+      <c r="X28" t="n">
+        <v>0.9190509855307156</v>
+      </c>
+      <c r="Y28" t="n">
         <v>6.866666666666667</v>
       </c>
-      <c r="X28" t="n">
+      <c r="Z28" t="n">
         <v>0.3593813970288645</v>
       </c>
     </row>
@@ -10138,9 +10912,15 @@
         <v>1.837507530499412</v>
       </c>
       <c r="W29" t="n">
+        <v>0.9803804347826088</v>
+      </c>
+      <c r="X29" t="n">
+        <v>2.022589372440903</v>
+      </c>
+      <c r="Y29" t="n">
         <v>7.100000000000001</v>
       </c>
-      <c r="X29" t="n">
+      <c r="Z29" t="n">
         <v>0.5398218591525976</v>
       </c>
     </row>
@@ -10212,9 +10992,15 @@
         <v>4.652001563489291</v>
       </c>
       <c r="W30" t="n">
+        <v>1.093928571428571</v>
+      </c>
+      <c r="X30" t="n">
+        <v>1.503099379549398</v>
+      </c>
+      <c r="Y30" t="n">
         <v>7.366666666666667</v>
       </c>
-      <c r="X30" t="n">
+      <c r="Z30" t="n">
         <v>1.345356232782868</v>
       </c>
     </row>
@@ -10286,9 +11072,15 @@
         <v>4.658078189748251</v>
       </c>
       <c r="W31" t="n">
+        <v>1.173150183150183</v>
+      </c>
+      <c r="X31" t="n">
+        <v>1.211165913037192</v>
+      </c>
+      <c r="Y31" t="n">
         <v>7.600000000000001</v>
       </c>
-      <c r="X31" t="n">
+      <c r="Z31" t="n">
         <v>0.2027438608412624</v>
       </c>
     </row>
@@ -10360,9 +11152,15 @@
         <v>0.931420789569421</v>
       </c>
       <c r="W32" t="n">
+        <v>1.159356884057971</v>
+      </c>
+      <c r="X32" t="n">
+        <v>1.974645713851098</v>
+      </c>
+      <c r="Y32" t="n">
         <v>7.633333333333333</v>
       </c>
-      <c r="X32" t="n">
+      <c r="Z32" t="n">
         <v>1.069567515261087</v>
       </c>
     </row>
@@ -10434,9 +11232,15 @@
         <v>4.65200156348927</v>
       </c>
       <c r="W33" t="n">
+        <v>1.183777173913043</v>
+      </c>
+      <c r="X33" t="n">
+        <v>1.59825088905419</v>
+      </c>
+      <c r="Y33" t="n">
         <v>7.366666666666667</v>
       </c>
-      <c r="X33" t="n">
+      <c r="Z33" t="n">
         <v>-0.2075065333136279</v>
       </c>
     </row>
@@ -10508,9 +11312,15 @@
         <v>1.596203083978002</v>
       </c>
       <c r="W34" t="n">
+        <v>1.13275</v>
+      </c>
+      <c r="X34" t="n">
+        <v>0.4850840317691807</v>
+      </c>
+      <c r="Y34" t="n">
         <v>7.133333333333333</v>
       </c>
-      <c r="X34" t="n">
+      <c r="Z34" t="n">
         <v>-0.4447344041411498</v>
       </c>
     </row>
@@ -10582,9 +11392,15 @@
         <v>2.076470297090824</v>
       </c>
       <c r="W35" t="n">
+        <v>1.06985347985348</v>
+      </c>
+      <c r="X35" t="n">
+        <v>1.861439197710495</v>
+      </c>
+      <c r="Y35" t="n">
         <v>7.066666666666666</v>
       </c>
-      <c r="X35" t="n">
+      <c r="Z35" t="n">
         <v>-0.1700881378508468</v>
       </c>
     </row>
@@ -10656,9 +11472,15 @@
         <v>4.325408693025432</v>
       </c>
       <c r="W36" t="n">
+        <v>0.9964039855072462</v>
+      </c>
+      <c r="X36" t="n">
+        <v>1.710166196199506</v>
+      </c>
+      <c r="Y36" t="n">
         <v>6.8</v>
       </c>
-      <c r="X36" t="n">
+      <c r="Z36" t="n">
         <v>-0.02307160647698863</v>
       </c>
     </row>
@@ -10730,9 +11552,15 @@
         <v>5.350028904258899</v>
       </c>
       <c r="W37" t="n">
+        <v>0.9521014492753619</v>
+      </c>
+      <c r="X37" t="n">
+        <v>1.380735594952812</v>
+      </c>
+      <c r="Y37" t="n">
         <v>6.633333333333333</v>
       </c>
-      <c r="X37" t="n">
+      <c r="Z37" t="n">
         <v>-0.1135633490294474</v>
       </c>
     </row>
@@ -10806,9 +11634,15 @@
         <v>3.255135040800878</v>
       </c>
       <c r="W38" t="n">
+        <v>0.9268333333333333</v>
+      </c>
+      <c r="X38" t="n">
+        <v>1.004696775533694</v>
+      </c>
+      <c r="Y38" t="n">
         <v>6.566666666666666</v>
       </c>
-      <c r="X38" t="n">
+      <c r="Z38" t="n">
         <v>0.5997309935410871</v>
       </c>
     </row>
@@ -10882,9 +11716,15 @@
         <v>3.84341373392604</v>
       </c>
       <c r="W39" t="n">
+        <v>0.8729945054945051</v>
+      </c>
+      <c r="X39" t="n">
+        <v>1.477308904247951</v>
+      </c>
+      <c r="Y39" t="n">
         <v>6.2</v>
       </c>
-      <c r="X39" t="n">
+      <c r="Z39" t="n">
         <v>-0.6334456811329374</v>
       </c>
     </row>
@@ -10958,9 +11798,15 @@
         <v>-0.03279226132025664</v>
       </c>
       <c r="W40" t="n">
+        <v>0.8086413043478262</v>
+      </c>
+      <c r="X40" t="n">
+        <v>1.496829968862364</v>
+      </c>
+      <c r="Y40" t="n">
         <v>6</v>
       </c>
-      <c r="X40" t="n">
+      <c r="Z40" t="n">
         <v>-0.593522518775743</v>
       </c>
     </row>
@@ -11034,9 +11880,15 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
+        <v>0.6613496376811594</v>
+      </c>
+      <c r="X41" t="n">
+        <v>1.425481922786129</v>
+      </c>
+      <c r="Y41" t="n">
         <v>5.633333333333333</v>
       </c>
-      <c r="X41" t="n">
+      <c r="Z41" t="n">
         <v>0.03990572122865862</v>
       </c>
     </row>
@@ -11110,9 +11962,15 @@
         <v>-1.021930766046043</v>
       </c>
       <c r="W42" t="n">
+        <v>0.5834722222222226</v>
+      </c>
+      <c r="X42" t="n">
+        <v>0.8164980190834302</v>
+      </c>
+      <c r="Y42" t="n">
         <v>5.466666666666666</v>
       </c>
-      <c r="X42" t="n">
+      <c r="Z42" t="n">
         <v>0.1667516163775227</v>
       </c>
     </row>
@@ -11186,9 +12044,15 @@
         <v>-2.788690706559746</v>
       </c>
       <c r="W43" t="n">
+        <v>0.4902197802197803</v>
+      </c>
+      <c r="X43" t="n">
+        <v>1.437660580239144</v>
+      </c>
+      <c r="Y43" t="n">
         <v>5.666666666666667</v>
       </c>
-      <c r="X43" t="n">
+      <c r="Z43" t="n">
         <v>0.1078687456864371</v>
       </c>
     </row>
@@ -11262,9 +12126,15 @@
         <v>3.449195089352135</v>
       </c>
       <c r="W44" t="n">
+        <v>0.4848731884057966</v>
+      </c>
+      <c r="X44" t="n">
+        <v>1.576129160699601</v>
+      </c>
+      <c r="Y44" t="n">
         <v>5.666666666666667</v>
       </c>
-      <c r="X44" t="n">
+      <c r="Z44" t="n">
         <v>0.17628492154494</v>
       </c>
     </row>
@@ -11338,9 +12208,15 @@
         <v>2.791482780385841</v>
       </c>
       <c r="W45" t="n">
+        <v>0.4534692028985505</v>
+      </c>
+      <c r="X45" t="n">
+        <v>0.9095470657360019</v>
+      </c>
+      <c r="Y45" t="n">
         <v>5.566666666666666</v>
       </c>
-      <c r="X45" t="n">
+      <c r="Z45" t="n">
         <v>0.3721076015752325</v>
       </c>
     </row>
@@ -11414,9 +12290,15 @@
         <v>2.9645816592752</v>
       </c>
       <c r="W46" t="n">
+        <v>0.4930860805860806</v>
+      </c>
+      <c r="X46" t="n">
+        <v>1.356277617020229</v>
+      </c>
+      <c r="Y46" t="n">
         <v>5.533333333333334</v>
       </c>
-      <c r="X46" t="n">
+      <c r="Z46" t="n">
         <v>0.4143405207332206</v>
       </c>
     </row>
@@ -11490,9 +12372,15 @@
         <v>4.585591585422436</v>
       </c>
       <c r="W47" t="n">
+        <v>0.6498443223443229</v>
+      </c>
+      <c r="X47" t="n">
+        <v>1.571612376995801</v>
+      </c>
+      <c r="Y47" t="n">
         <v>5.5</v>
       </c>
-      <c r="X47" t="n">
+      <c r="Z47" t="n">
         <v>0.5776702521823834</v>
       </c>
     </row>
@@ -11566,9 +12454,15 @@
         <v>0.8276724754031047</v>
       </c>
       <c r="W48" t="n">
+        <v>0.6659510869565224</v>
+      </c>
+      <c r="X48" t="n">
+        <v>1.656144073704366</v>
+      </c>
+      <c r="Y48" t="n">
         <v>5.266666666666667</v>
       </c>
-      <c r="X48" t="n">
+      <c r="Z48" t="n">
         <v>0.2269927708221068</v>
       </c>
     </row>
@@ -11642,9 +12536,15 @@
         <v>-0.5312881446293959</v>
       </c>
       <c r="W49" t="n">
+        <v>0.6131159420289864</v>
+      </c>
+      <c r="X49" t="n">
+        <v>1.406354671425849</v>
+      </c>
+      <c r="Y49" t="n">
         <v>5.333333333333333</v>
       </c>
-      <c r="X49" t="n">
+      <c r="Z49" t="n">
         <v>-0.05740889823699988</v>
       </c>
     </row>
@@ -11718,9 +12618,15 @@
         <v>0.825233094667669</v>
       </c>
       <c r="W50" t="n">
+        <v>0.6153888888888899</v>
+      </c>
+      <c r="X50" t="n">
+        <v>1.180647927875349</v>
+      </c>
+      <c r="Y50" t="n">
         <v>5.233333333333333</v>
       </c>
-      <c r="X50" t="n">
+      <c r="Z50" t="n">
         <v>0.117688842325689</v>
       </c>
     </row>
@@ -11794,9 +12700,15 @@
         <v>1.745752802405697</v>
       </c>
       <c r="W51" t="n">
+        <v>0.5961172161172166</v>
+      </c>
+      <c r="X51" t="n">
+        <v>1.424337088689091</v>
+      </c>
+      <c r="Y51" t="n">
         <v>5</v>
       </c>
-      <c r="X51" t="n">
+      <c r="Z51" t="n">
         <v>0.3426034466506157</v>
       </c>
     </row>
@@ -11870,9 +12782,15 @@
         <v>1.318070658080374</v>
       </c>
       <c r="W52" t="n">
+        <v>0.5271648550724641</v>
+      </c>
+      <c r="X52" t="n">
+        <v>2.322965781594291</v>
+      </c>
+      <c r="Y52" t="n">
         <v>4.866666666666666</v>
       </c>
-      <c r="X52" t="n">
+      <c r="Z52" t="n">
         <v>0.7315284458661117</v>
       </c>
     </row>
@@ -11946,9 +12864,15 @@
         <v>1.749480286228099</v>
       </c>
       <c r="W53" t="n">
+        <v>0.4906521739130436</v>
+      </c>
+      <c r="X53" t="n">
+        <v>1.007127150844211</v>
+      </c>
+      <c r="Y53" t="n">
         <v>4.666666666666667</v>
       </c>
-      <c r="X53" t="n">
+      <c r="Z53" t="n">
         <v>1.385534799606143</v>
       </c>
     </row>
@@ -12022,9 +12946,15 @@
         <v>2.048798130833951</v>
       </c>
       <c r="W54" t="n">
+        <v>0.4251666666666665</v>
+      </c>
+      <c r="X54" t="n">
+        <v>1.430647922414338</v>
+      </c>
+      <c r="Y54" t="n">
         <v>4.633333333333333</v>
       </c>
-      <c r="X54" t="n">
+      <c r="Z54" t="n">
         <v>1.743426204920883</v>
       </c>
     </row>
@@ -12098,9 +13028,15 @@
         <v>3.632849373532128</v>
       </c>
       <c r="W55" t="n">
+        <v>0.4264652014652011</v>
+      </c>
+      <c r="X55" t="n">
+        <v>2.077073107508811</v>
+      </c>
+      <c r="Y55" t="n">
         <v>4.399999999999999</v>
       </c>
-      <c r="X55" t="n">
+      <c r="Z55" t="n">
         <v>1.109905120406505</v>
       </c>
     </row>
@@ -12174,9 +13110,15 @@
         <v>3.938332800037537</v>
       </c>
       <c r="W56" t="n">
+        <v>0.3879257246376813</v>
+      </c>
+      <c r="X56" t="n">
+        <v>1.93886886274309</v>
+      </c>
+      <c r="Y56" t="n">
         <v>4.533333333333333</v>
       </c>
-      <c r="X56" t="n">
+      <c r="Z56" t="n">
         <v>1.201081448069693</v>
       </c>
     </row>
@@ -12250,9 +13192,15 @@
         <v>3.298649899630645</v>
       </c>
       <c r="W57" t="n">
+        <v>0.5048641304347825</v>
+      </c>
+      <c r="X57" t="n">
+        <v>2.304719006103026</v>
+      </c>
+      <c r="Y57" t="n">
         <v>4.433333333333334</v>
       </c>
-      <c r="X57" t="n">
+      <c r="Z57" t="n">
         <v>0.1100809646699899</v>
       </c>
     </row>
@@ -12326,9 +13274,15 @@
         <v>1.585205734328175</v>
       </c>
       <c r="W58" t="n">
+        <v>0.5521944444444442</v>
+      </c>
+      <c r="X58" t="n">
+        <v>1.927781765140204</v>
+      </c>
+      <c r="Y58" t="n">
         <v>4.3</v>
       </c>
-      <c r="X58" t="n">
+      <c r="Z58" t="n">
         <v>1.272784676290975</v>
       </c>
     </row>
@@ -12402,9 +13356,15 @@
         <v>2.154224042221118</v>
       </c>
       <c r="W59" t="n">
+        <v>0.586410256410256</v>
+      </c>
+      <c r="X59" t="n">
+        <v>2.323456692645795</v>
+      </c>
+      <c r="Y59" t="n">
         <v>4.266666666666667</v>
       </c>
-      <c r="X59" t="n">
+      <c r="Z59" t="n">
         <v>-0.2006224204571036</v>
       </c>
     </row>
@@ -12478,9 +13438,15 @@
         <v>1.667292350478271</v>
       </c>
       <c r="W60" t="n">
+        <v>0.6052807971014489</v>
+      </c>
+      <c r="X60" t="n">
+        <v>2.774187356268646</v>
+      </c>
+      <c r="Y60" t="n">
         <v>4.233333333333333</v>
       </c>
-      <c r="X60" t="n">
+      <c r="Z60" t="n">
         <v>0.4878018079382341</v>
       </c>
     </row>
@@ -12554,9 +13520,15 @@
         <v>2.005830937517215</v>
       </c>
       <c r="W61" t="n">
+        <v>0.5689945652173918</v>
+      </c>
+      <c r="X61" t="n">
+        <v>1.864078036767872</v>
+      </c>
+      <c r="Y61" t="n">
         <v>4.066666666666666</v>
       </c>
-      <c r="X61" t="n">
+      <c r="Z61" t="n">
         <v>1.685107691738291</v>
       </c>
     </row>
@@ -12630,9 +13602,15 @@
         <v>2.502102804443519</v>
       </c>
       <c r="W62" t="n">
+        <v>0.5647435897435895</v>
+      </c>
+      <c r="X62" t="n">
+        <v>1.393692804223548</v>
+      </c>
+      <c r="Y62" t="n">
         <v>4.033333333333333</v>
       </c>
-      <c r="X62" t="n">
+      <c r="Z62" t="n">
         <v>2.873502365231436</v>
       </c>
     </row>
@@ -12706,9 +13684,15 @@
         <v>0.2889854184104569</v>
       </c>
       <c r="W63" t="n">
+        <v>0.4561721611721612</v>
+      </c>
+      <c r="X63" t="n">
+        <v>2.458237156983756</v>
+      </c>
+      <c r="Y63" t="n">
         <v>3.933333333333334</v>
       </c>
-      <c r="X63" t="n">
+      <c r="Z63" t="n">
         <v>-0.1849822526799591</v>
       </c>
     </row>
@@ -12782,9 +13766,15 @@
         <v>-1.003912502832854</v>
       </c>
       <c r="W64" t="n">
+        <v>0.3718025362318842</v>
+      </c>
+      <c r="X64" t="n">
+        <v>2.444978016499623</v>
+      </c>
+      <c r="Y64" t="n">
         <v>4</v>
       </c>
-      <c r="X64" t="n">
+      <c r="Z64" t="n">
         <v>1.482439099860601</v>
       </c>
     </row>
@@ -12858,9 +13848,15 @@
         <v>0.9372976452567761</v>
       </c>
       <c r="W65" t="n">
+        <v>0.319610507246376</v>
+      </c>
+      <c r="X65" t="n">
+        <v>2.000984498798462</v>
+      </c>
+      <c r="Y65" t="n">
         <v>3.9</v>
       </c>
-      <c r="X65" t="n">
+      <c r="Z65" t="n">
         <v>0.08442339646907653</v>
       </c>
     </row>
@@ -12934,9 +13930,15 @@
         <v>1.783206304244651</v>
       </c>
       <c r="W66" t="n">
+        <v>0.3999166666666676</v>
+      </c>
+      <c r="X66" t="n">
+        <v>1.755115980828378</v>
+      </c>
+      <c r="Y66" t="n">
         <v>4.233333333333333</v>
       </c>
-      <c r="X66" t="n">
+      <c r="Z66" t="n">
         <v>1.573522145657626</v>
       </c>
     </row>
@@ -13010,9 +14012,15 @@
         <v>2.605940506933865</v>
       </c>
       <c r="W67" t="n">
+        <v>0.7041575091575094</v>
+      </c>
+      <c r="X67" t="n">
+        <v>3.226908585445039</v>
+      </c>
+      <c r="Y67" t="n">
         <v>4.399999999999999</v>
       </c>
-      <c r="X67" t="n">
+      <c r="Z67" t="n">
         <v>-0.3884383569649729</v>
       </c>
     </row>
@@ -13086,9 +14094,15 @@
         <v>2.207595169919983</v>
       </c>
       <c r="W68" t="n">
+        <v>0.8896195652173914</v>
+      </c>
+      <c r="X68" t="n">
+        <v>2.956962076923184</v>
+      </c>
+      <c r="Y68" t="n">
         <v>4.833333333333333</v>
       </c>
-      <c r="X68" t="n">
+      <c r="Z68" t="n">
         <v>0.02086459700051597</v>
       </c>
     </row>
@@ -13162,9 +14176,15 @@
         <v>-0.1664932746722196</v>
       </c>
       <c r="W69" t="n">
+        <v>1.144057971014493</v>
+      </c>
+      <c r="X69" t="n">
+        <v>2.106507940897485</v>
+      </c>
+      <c r="Y69" t="n">
         <v>5.5</v>
       </c>
-      <c r="X69" t="n">
+      <c r="Z69" t="n">
         <v>0.7072959362869223</v>
       </c>
     </row>
@@ -13238,9 +14258,15 @@
         <v>2.42810282643994</v>
       </c>
       <c r="W70" t="n">
+        <v>1.280111111111111</v>
+      </c>
+      <c r="X70" t="n">
+        <v>2.556290508934249</v>
+      </c>
+      <c r="Y70" t="n">
         <v>5.7</v>
       </c>
-      <c r="X70" t="n">
+      <c r="Z70" t="n">
         <v>0.6798898102746526</v>
       </c>
     </row>
@@ -13314,9 +14340,15 @@
         <v>2.944629376628077</v>
       </c>
       <c r="W71" t="n">
+        <v>1.260448717948718</v>
+      </c>
+      <c r="X71" t="n">
+        <v>3.193849598429004</v>
+      </c>
+      <c r="Y71" t="n">
         <v>5.833333333333333</v>
       </c>
-      <c r="X71" t="n">
+      <c r="Z71" t="n">
         <v>0.5096949546853069</v>
       </c>
     </row>
@@ -13390,9 +14422,15 @@
         <v>0.9625847824106198</v>
       </c>
       <c r="W72" t="n">
+        <v>1.163115942028986</v>
+      </c>
+      <c r="X72" t="n">
+        <v>3.382704536301659</v>
+      </c>
+      <c r="Y72" t="n">
         <v>5.733333333333333</v>
       </c>
-      <c r="X72" t="n">
+      <c r="Z72" t="n">
         <v>0.09762394751077999</v>
       </c>
     </row>
@@ -13466,9 +14504,15 @@
         <v>3.193807432120631</v>
       </c>
       <c r="W73" t="n">
+        <v>1.164773550724638</v>
+      </c>
+      <c r="X73" t="n">
+        <v>3.335926404035621</v>
+      </c>
+      <c r="Y73" t="n">
         <v>5.866666666666667</v>
       </c>
-      <c r="X73" t="n">
+      <c r="Z73" t="n">
         <v>-0.1045100727625941</v>
       </c>
     </row>
@@ -13542,9 +14586,15 @@
         <v>3.186704010949004</v>
       </c>
       <c r="W74" t="n">
+        <v>1.16175</v>
+      </c>
+      <c r="X74" t="n">
+        <v>2.883834431706596</v>
+      </c>
+      <c r="Y74" t="n">
         <v>5.866666666666667</v>
       </c>
-      <c r="X74" t="n">
+      <c r="Z74" t="n">
         <v>0.8786217784293378</v>
       </c>
     </row>
@@ -13618,9 +14668,15 @@
         <v>2.302703502910492</v>
       </c>
       <c r="W75" t="n">
+        <v>1.08915750915751</v>
+      </c>
+      <c r="X75" t="n">
+        <v>4.092584021883129</v>
+      </c>
+      <c r="Y75" t="n">
         <v>6.133333333333333</v>
       </c>
-      <c r="X75" t="n">
+      <c r="Z75" t="n">
         <v>1.407307788785062</v>
       </c>
     </row>
@@ -13694,9 +14750,15 @@
         <v>5.611227921164054</v>
       </c>
       <c r="W76" t="n">
+        <v>1.165788043478261</v>
+      </c>
+      <c r="X76" t="n">
+        <v>3.700284309245446</v>
+      </c>
+      <c r="Y76" t="n">
         <v>6.133333333333333</v>
       </c>
-      <c r="X76" t="n">
+      <c r="Z76" t="n">
         <v>0.835858064210331</v>
       </c>
     </row>
@@ -13770,9 +14832,15 @@
         <v>4.522509800493581</v>
       </c>
       <c r="W77" t="n">
+        <v>1.208315217391304</v>
+      </c>
+      <c r="X77" t="n">
+        <v>3.053349690820164</v>
+      </c>
+      <c r="Y77" t="n">
         <v>5.833333333333333</v>
       </c>
-      <c r="X77" t="n">
+      <c r="Z77" t="n">
         <v>0.2926046176816195</v>
       </c>
     </row>
@@ -13846,9 +14914,15 @@
         <v>3.219401540794649</v>
       </c>
       <c r="W78" t="n">
+        <v>1.154532967032967</v>
+      </c>
+      <c r="X78" t="n">
+        <v>2.442215663267359</v>
+      </c>
+      <c r="Y78" t="n">
         <v>5.7</v>
       </c>
-      <c r="X78" t="n">
+      <c r="Z78" t="n">
         <v>-1.324006255616792</v>
       </c>
     </row>
@@ -13922,9 +14996,15 @@
         <v>5.789005745763967</v>
       </c>
       <c r="W79" t="n">
+        <v>1.178003663003663</v>
+      </c>
+      <c r="X79" t="n">
+        <v>3.778850455339486</v>
+      </c>
+      <c r="Y79" t="n">
         <v>5.599999999999999</v>
       </c>
-      <c r="X79" t="n">
+      <c r="Z79" t="n">
         <v>0.5542861517314714</v>
       </c>
     </row>
@@ -13998,9 +15078,15 @@
         <v>3.061017299825585</v>
       </c>
       <c r="W80" t="n">
+        <v>1.098976449275362</v>
+      </c>
+      <c r="X80" t="n">
+        <v>3.243024438646115</v>
+      </c>
+      <c r="Y80" t="n">
         <v>5.433333333333334</v>
       </c>
-      <c r="X80" t="n">
+      <c r="Z80" t="n">
         <v>0.870053503140498</v>
       </c>
     </row>
@@ -14074,9 +15160,15 @@
         <v>2.270889523983484</v>
       </c>
       <c r="W81" t="n">
+        <v>0.9550271739130435</v>
+      </c>
+      <c r="X81" t="n">
+        <v>3.328424582974502</v>
+      </c>
+      <c r="Y81" t="n">
         <v>5.433333333333334</v>
       </c>
-      <c r="X81" t="n">
+      <c r="Z81" t="n">
         <v>0.06841565101537322</v>
       </c>
     </row>
@@ -14150,9 +15242,15 @@
         <v>3.067810016923482</v>
       </c>
       <c r="W82" t="n">
+        <v>0.8302499999999997</v>
+      </c>
+      <c r="X82" t="n">
+        <v>2.703413482439003</v>
+      </c>
+      <c r="Y82" t="n">
         <v>5.266666666666667</v>
       </c>
-      <c r="X82" t="n">
+      <c r="Z82" t="n">
         <v>-0.1570930570968357</v>
       </c>
     </row>
@@ -14226,9 +15324,15 @@
         <v>3.962367202814642</v>
       </c>
       <c r="W83" t="n">
+        <v>0.7203937728937729</v>
+      </c>
+      <c r="X83" t="n">
+        <v>3.43869398959077</v>
+      </c>
+      <c r="Y83" t="n">
         <v>5.133333333333334</v>
       </c>
-      <c r="X83" t="n">
+      <c r="Z83" t="n">
         <v>0.05899602191465735</v>
       </c>
     </row>
@@ -14302,9 +15406,15 @@
         <v>3.609665538721766</v>
       </c>
       <c r="W84" t="n">
+        <v>0.5941666666666664</v>
+      </c>
+      <c r="X84" t="n">
+        <v>3.391335399011536</v>
+      </c>
+      <c r="Y84" t="n">
         <v>4.966666666666667</v>
       </c>
-      <c r="X84" t="n">
+      <c r="Z84" t="n">
         <v>0.3537434252962114</v>
       </c>
     </row>
@@ -14378,9 +15488,15 @@
         <v>1.911960772932828</v>
       </c>
       <c r="W85" t="n">
+        <v>0.557934782608696</v>
+      </c>
+      <c r="X85" t="n">
+        <v>2.918458922592683</v>
+      </c>
+      <c r="Y85" t="n">
         <v>4.933333333333334</v>
       </c>
-      <c r="X85" t="n">
+      <c r="Z85" t="n">
         <v>-0.2841729381919869</v>
       </c>
     </row>
@@ -14454,9 +15570,15 @@
         <v>0.6661756687066653</v>
       </c>
       <c r="W86" t="n">
+        <v>0.4848055555555564</v>
+      </c>
+      <c r="X86" t="n">
+        <v>3.299154487576608</v>
+      </c>
+      <c r="Y86" t="n">
         <v>4.733333333333333</v>
       </c>
-      <c r="X86" t="n">
+      <c r="Z86" t="n">
         <v>0.5922682521558574</v>
       </c>
     </row>
@@ -14530,9 +15652,15 @@
         <v>-3.618095085053826</v>
       </c>
       <c r="W87" t="n">
+        <v>0.4356043956043951</v>
+      </c>
+      <c r="X87" t="n">
+        <v>3.270203388442527</v>
+      </c>
+      <c r="Y87" t="n">
         <v>4.666666666666667</v>
       </c>
-      <c r="X87" t="n">
+      <c r="Z87" t="n">
         <v>-0.3625624765729431</v>
       </c>
     </row>
@@ -14606,9 +15734,15 @@
         <v>-5.597424557967874</v>
       </c>
       <c r="W88" t="n">
+        <v>0.3803351449275361</v>
+      </c>
+      <c r="X88" t="n">
+        <v>2.452670051098675</v>
+      </c>
+      <c r="Y88" t="n">
         <v>4.633333333333334</v>
       </c>
-      <c r="X88" t="n">
+      <c r="Z88" t="n">
         <v>-0.4086285672709357</v>
       </c>
     </row>
@@ -14682,9 +15816,15 @@
         <v>-4.63595220847842</v>
       </c>
       <c r="W89" t="n">
+        <v>0.3200996376811596</v>
+      </c>
+      <c r="X89" t="n">
+        <v>1.561745592277124</v>
+      </c>
+      <c r="Y89" t="n">
         <v>4.433333333333334</v>
       </c>
-      <c r="X89" t="n">
+      <c r="Z89" t="n">
         <v>1.714879675359611</v>
       </c>
     </row>
@@ -14758,9 +15898,15 @@
         <v>-4.049252848757594</v>
       </c>
       <c r="W90" t="n">
+        <v>0.2855277777777772</v>
+      </c>
+      <c r="X90" t="n">
+        <v>1.985720555225968</v>
+      </c>
+      <c r="Y90" t="n">
         <v>4.5</v>
       </c>
-      <c r="X90" t="n">
+      <c r="Z90" t="n">
         <v>0.1031395160449592</v>
       </c>
     </row>
@@ -14834,9 +15980,15 @@
         <v>-3.730490243232172</v>
       </c>
       <c r="W91" t="n">
+        <v>0.2968956043956039</v>
+      </c>
+      <c r="X91" t="n">
+        <v>2.009313040563272</v>
+      </c>
+      <c r="Y91" t="n">
         <v>4.533333333333333</v>
       </c>
-      <c r="X91" t="n">
+      <c r="Z91" t="n">
         <v>-0.1542698105039519</v>
       </c>
     </row>
@@ -14910,9 +16062,15 @@
         <v>-6.219049377310645</v>
       </c>
       <c r="W92" t="n">
+        <v>0.4147463768115944</v>
+      </c>
+      <c r="X92" t="n">
+        <v>1.466721578856795</v>
+      </c>
+      <c r="Y92" t="n">
         <v>4.7</v>
       </c>
-      <c r="X92" t="n">
+      <c r="Z92" t="n">
         <v>0.2567767678574419</v>
       </c>
     </row>
@@ -14986,9 +16144,15 @@
         <v>-8.541775115435177</v>
       </c>
       <c r="W93" t="n">
+        <v>0.480253623188406</v>
+      </c>
+      <c r="X93" t="n">
+        <v>1.142426764255193</v>
+      </c>
+      <c r="Y93" t="n">
         <v>4.8</v>
       </c>
-      <c r="X93" t="n">
+      <c r="Z93" t="n">
         <v>0.6534733065439211</v>
       </c>
     </row>
@@ -15062,9 +16226,15 @@
         <v>-8.701137698962981</v>
       </c>
       <c r="W94" t="n">
+        <v>0.7096428571428575</v>
+      </c>
+      <c r="X94" t="n">
+        <v>0.6990711183999552</v>
+      </c>
+      <c r="Y94" t="n">
         <v>4.933333333333333</v>
       </c>
-      <c r="X94" t="n">
+      <c r="Z94" t="n">
         <v>-0.05454483292428998</v>
       </c>
     </row>
@@ -15138,9 +16308,15 @@
         <v>-4.722798026623292</v>
       </c>
       <c r="W95" t="n">
+        <v>1.009652014652014</v>
+      </c>
+      <c r="X95" t="n">
+        <v>-0.03901832214169923</v>
+      </c>
+      <c r="Y95" t="n">
         <v>5.366666666666667</v>
       </c>
-      <c r="X95" t="n">
+      <c r="Z95" t="n">
         <v>-0.1196851139522223</v>
       </c>
     </row>
@@ -15214,9 +16390,15 @@
         <v>-5.319076748081435</v>
       </c>
       <c r="W96" t="n">
+        <v>1.112336956521739</v>
+      </c>
+      <c r="X96" t="n">
+        <v>-0.3419194141507763</v>
+      </c>
+      <c r="Y96" t="n">
         <v>6.066666666666666</v>
       </c>
-      <c r="X96" t="n">
+      <c r="Z96" t="n">
         <v>0.1195313852514801</v>
       </c>
     </row>
@@ -15290,9 +16472,15 @@
         <v>-9.109372942539009</v>
       </c>
       <c r="W97" t="n">
+        <v>1.378668478260869</v>
+      </c>
+      <c r="X97" t="n">
+        <v>-0.7136561296930838</v>
+      </c>
+      <c r="Y97" t="n">
         <v>6.866666666666666</v>
       </c>
-      <c r="X97" t="n">
+      <c r="Z97" t="n">
         <v>0.6884937614143962</v>
       </c>
     </row>
@@ -15366,9 +16554,15 @@
         <v>-13.27970066383171</v>
       </c>
       <c r="W98" t="n">
+        <v>1.242222222222222</v>
+      </c>
+      <c r="X98" t="n">
+        <v>-0.003524898885789755</v>
+      </c>
+      <c r="Y98" t="n">
         <v>8.066666666666666</v>
       </c>
-      <c r="X98" t="n">
+      <c r="Z98" t="n">
         <v>-1.663510808814617</v>
       </c>
     </row>
@@ -15442,9 +16636,15 @@
         <v>-7.970907406686524</v>
       </c>
       <c r="W99" t="n">
+        <v>1.211327838827839</v>
+      </c>
+      <c r="X99" t="n">
+        <v>-0.3309406478507456</v>
+      </c>
+      <c r="Y99" t="n">
         <v>9.266666666666667</v>
       </c>
-      <c r="X99" t="n">
+      <c r="Z99" t="n">
         <v>0.08853890747293923</v>
       </c>
     </row>
@@ -15516,9 +16716,13 @@
         <v>4.245119570561991</v>
       </c>
       <c r="W100" t="n">
+        <v>1.288079710144928</v>
+      </c>
+      <c r="X100" t="inlineStr"/>
+      <c r="Y100" t="n">
         <v>9.633333333333335</v>
       </c>
-      <c r="X100" t="n">
+      <c r="Z100" t="n">
         <v>0.7274649914078629</v>
       </c>
     </row>
@@ -15563,6 +16767,8 @@
       </c>
       <c r="W101" t="inlineStr"/>
       <c r="X101" t="inlineStr"/>
+      <c r="Y101" t="inlineStr"/>
+      <c r="Z101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
@@ -15575,7 +16781,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X101"/>
+  <dimension ref="A1:Z101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15691,10 +16897,20 @@
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
+          <t>mortffr_obs</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>mortgage_nom_obs</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
           <t>unr_obs</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>wage_rgd_obs</t>
         </is>
@@ -15768,9 +16984,15 @@
         <v>0.163800200423837</v>
       </c>
       <c r="W2" t="n">
+        <v>0.970388888888889</v>
+      </c>
+      <c r="X2" t="n">
+        <v>4.838279261661252</v>
+      </c>
+      <c r="Y2" t="n">
         <v>7.233333333333333</v>
       </c>
-      <c r="X2" t="n">
+      <c r="Z2" t="n">
         <v>0.0585619023566217</v>
       </c>
     </row>
@@ -15842,9 +17064,15 @@
         <v>0.9772064733792302</v>
       </c>
       <c r="W3" t="n">
+        <v>1.014734432234433</v>
+      </c>
+      <c r="X3" t="n">
+        <v>2.887889102968135</v>
+      </c>
+      <c r="Y3" t="n">
         <v>7.3</v>
       </c>
-      <c r="X3" t="n">
+      <c r="Z3" t="n">
         <v>0.2561233676117278</v>
       </c>
     </row>
@@ -15916,9 +17144,15 @@
         <v>1.979203413194857</v>
       </c>
       <c r="W4" t="n">
+        <v>0.8547554347826087</v>
+      </c>
+      <c r="X4" t="n">
+        <v>4.283328736272085</v>
+      </c>
+      <c r="Y4" t="n">
         <v>7.2</v>
       </c>
-      <c r="X4" t="n">
+      <c r="Z4" t="n">
         <v>0.9294994864702675</v>
       </c>
     </row>
@@ -15990,9 +17224,15 @@
         <v>3.487212571402014</v>
       </c>
       <c r="W5" t="n">
+        <v>0.7705525362318832</v>
+      </c>
+      <c r="X5" t="n">
+        <v>3.377405381157359</v>
+      </c>
+      <c r="Y5" t="n">
         <v>7.033333333333334</v>
       </c>
-      <c r="X5" t="n">
+      <c r="Z5" t="n">
         <v>1.136886190987389</v>
       </c>
     </row>
@@ -16064,9 +17304,15 @@
         <v>5.377104065178582</v>
       </c>
       <c r="W6" t="n">
+        <v>0.7299444444444461</v>
+      </c>
+      <c r="X6" t="n">
+        <v>1.821793037383781</v>
+      </c>
+      <c r="Y6" t="n">
         <v>7.033333333333334</v>
       </c>
-      <c r="X6" t="n">
+      <c r="Z6" t="n">
         <v>0.8024461665134646</v>
       </c>
     </row>
@@ -16138,9 +17384,15 @@
         <v>6.338662189231478</v>
       </c>
       <c r="W7" t="n">
+        <v>0.8312179487179467</v>
+      </c>
+      <c r="X7" t="n">
+        <v>3.266066946893799</v>
+      </c>
+      <c r="Y7" t="n">
         <v>7.166666666666667</v>
       </c>
-      <c r="X7" t="n">
+      <c r="Z7" t="n">
         <v>0.4574238561276663</v>
       </c>
     </row>
@@ -16212,9 +17464,15 @@
         <v>2.825933731440306</v>
       </c>
       <c r="W8" t="n">
+        <v>0.9993025362318846</v>
+      </c>
+      <c r="X8" t="n">
+        <v>3.995249609571855</v>
+      </c>
+      <c r="Y8" t="n">
         <v>6.966666666666666</v>
       </c>
-      <c r="X8" t="n">
+      <c r="Z8" t="n">
         <v>0.5089154227391779</v>
       </c>
     </row>
@@ -16286,9 +17544,15 @@
         <v>0.9683174251825857</v>
       </c>
       <c r="W9" t="n">
+        <v>0.8933152173913048</v>
+      </c>
+      <c r="X9" t="n">
+        <v>3.767756284239854</v>
+      </c>
+      <c r="Y9" t="n">
         <v>6.833333333333333</v>
       </c>
-      <c r="X9" t="n">
+      <c r="Z9" t="n">
         <v>0.535950991194442</v>
       </c>
     </row>
@@ -16360,9 +17624,15 @@
         <v>0.7853443505570304</v>
       </c>
       <c r="W10" t="n">
+        <v>0.7668611111111105</v>
+      </c>
+      <c r="X10" t="n">
+        <v>1.947735118636464</v>
+      </c>
+      <c r="Y10" t="n">
         <v>6.599999999999999</v>
       </c>
-      <c r="X10" t="n">
+      <c r="Z10" t="n">
         <v>-0.2790726782977443</v>
       </c>
     </row>
@@ -16434,9 +17704,15 @@
         <v>1.209517984897514</v>
       </c>
       <c r="W11" t="n">
+        <v>0.6541666666666672</v>
+      </c>
+      <c r="X11" t="n">
+        <v>4.147767327829527</v>
+      </c>
+      <c r="Y11" t="n">
         <v>6.266666666666667</v>
       </c>
-      <c r="X11" t="n">
+      <c r="Z11" t="n">
         <v>0.1112838271730546</v>
       </c>
     </row>
@@ -16508,9 +17784,15 @@
         <v>0.5566274273321643</v>
       </c>
       <c r="W12" t="n">
+        <v>0.6326086956521739</v>
+      </c>
+      <c r="X12" t="n">
+        <v>2.826774900665543</v>
+      </c>
+      <c r="Y12" t="n">
         <v>6</v>
       </c>
-      <c r="X12" t="n">
+      <c r="Z12" t="n">
         <v>0.2338340968445509</v>
       </c>
     </row>
@@ -16582,9 +17864,15 @@
         <v>1.399217231107909</v>
       </c>
       <c r="W13" t="n">
+        <v>0.5842481884057971</v>
+      </c>
+      <c r="X13" t="n">
+        <v>1.41489184132428</v>
+      </c>
+      <c r="Y13" t="n">
         <v>5.833333333333333</v>
       </c>
-      <c r="X13" t="n">
+      <c r="Z13" t="n">
         <v>0.4288254204660166</v>
       </c>
     </row>
@@ -16656,9 +17944,15 @@
         <v>-1.31385657718383</v>
       </c>
       <c r="W14" t="n">
+        <v>0.6285164835164825</v>
+      </c>
+      <c r="X14" t="n">
+        <v>2.538290967561651</v>
+      </c>
+      <c r="Y14" t="n">
         <v>5.7</v>
       </c>
-      <c r="X14" t="n">
+      <c r="Z14" t="n">
         <v>0.9604147122408058</v>
       </c>
     </row>
@@ -16730,9 +18024,15 @@
         <v>1.692087748833718</v>
       </c>
       <c r="W15" t="n">
+        <v>0.5179304029304042</v>
+      </c>
+      <c r="X15" t="n">
+        <v>3.489634163901059</v>
+      </c>
+      <c r="Y15" t="n">
         <v>5.466666666666666</v>
       </c>
-      <c r="X15" t="n">
+      <c r="Z15" t="n">
         <v>0.2133605501158805</v>
       </c>
     </row>
@@ -16804,9 +18104,15 @@
         <v>0.6688988150796489</v>
       </c>
       <c r="W16" t="n">
+        <v>0.3266304347826092</v>
+      </c>
+      <c r="X16" t="n">
+        <v>2.91823679065083</v>
+      </c>
+      <c r="Y16" t="n">
         <v>5.466666666666666</v>
       </c>
-      <c r="X16" t="n">
+      <c r="Z16" t="n">
         <v>-0.02583299344620927</v>
       </c>
     </row>
@@ -16878,9 +18184,15 @@
         <v>1.816730395544893</v>
       </c>
       <c r="W17" t="n">
+        <v>0.2487137681159424</v>
+      </c>
+      <c r="X17" t="n">
+        <v>2.726497326586302</v>
+      </c>
+      <c r="Y17" t="n">
         <v>5.333333333333333</v>
       </c>
-      <c r="X17" t="n">
+      <c r="Z17" t="n">
         <v>-0.1606901132240531</v>
       </c>
     </row>
@@ -16952,9 +18264,15 @@
         <v>0.08179959556317626</v>
       </c>
       <c r="W18" t="n">
+        <v>0.08588888888888979</v>
+      </c>
+      <c r="X18" t="n">
+        <v>1.643544561454601</v>
+      </c>
+      <c r="Y18" t="n">
         <v>5.2</v>
       </c>
-      <c r="X18" t="n">
+      <c r="Z18" t="n">
         <v>-0.7871523321403552</v>
       </c>
     </row>
@@ -17026,9 +18344,15 @@
         <v>-1.815231360718883</v>
       </c>
       <c r="W19" t="n">
+        <v>0.1560714285714275</v>
+      </c>
+      <c r="X19" t="n">
+        <v>2.721931283633474</v>
+      </c>
+      <c r="Y19" t="n">
         <v>5.233333333333333</v>
       </c>
-      <c r="X19" t="n">
+      <c r="Z19" t="n">
         <v>-0.718270759276684</v>
       </c>
     </row>
@@ -17100,9 +18424,15 @@
         <v>-0.7521974454688446</v>
       </c>
       <c r="W20" t="n">
+        <v>0.2882699275362324</v>
+      </c>
+      <c r="X20" t="n">
+        <v>2.947527669609471</v>
+      </c>
+      <c r="Y20" t="n">
         <v>5.233333333333333</v>
       </c>
-      <c r="X20" t="n">
+      <c r="Z20" t="n">
         <v>0.1213990856734398</v>
       </c>
     </row>
@@ -17174,9 +18504,15 @@
         <v>-1.521584723725332</v>
       </c>
       <c r="W21" t="n">
+        <v>0.3705525362318833</v>
+      </c>
+      <c r="X21" t="n">
+        <v>2.213323210101831</v>
+      </c>
+      <c r="Y21" t="n">
         <v>5.366666666666667</v>
       </c>
-      <c r="X21" t="n">
+      <c r="Z21" t="n">
         <v>0.7056477911718986</v>
       </c>
     </row>
@@ -17248,9 +18584,15 @@
         <v>1.856593412253519</v>
       </c>
       <c r="W22" t="n">
+        <v>0.4446666666666679</v>
+      </c>
+      <c r="X22" t="n">
+        <v>3.257750385284998</v>
+      </c>
+      <c r="Y22" t="n">
         <v>5.3</v>
       </c>
-      <c r="X22" t="n">
+      <c r="Z22" t="n">
         <v>0.7077631708862511</v>
       </c>
     </row>
@@ -17322,9 +18664,15 @@
         <v>-3.531530571602695</v>
       </c>
       <c r="W23" t="n">
+        <v>0.4802481684981683</v>
+      </c>
+      <c r="X23" t="n">
+        <v>2.560864642558711</v>
+      </c>
+      <c r="Y23" t="n">
         <v>5.333333333333333</v>
       </c>
-      <c r="X23" t="n">
+      <c r="Z23" t="n">
         <v>0.9744668559119278</v>
       </c>
     </row>
@@ -17396,9 +18744,15 @@
         <v>-5.382664581262346</v>
       </c>
       <c r="W24" t="n">
+        <v>0.4706123188405811</v>
+      </c>
+      <c r="X24" t="n">
+        <v>2.122346525019553</v>
+      </c>
+      <c r="Y24" t="n">
         <v>5.7</v>
       </c>
-      <c r="X24" t="n">
+      <c r="Z24" t="n">
         <v>0.6411849710942379</v>
       </c>
     </row>
@@ -17470,9 +18824,15 @@
         <v>-5.543927728245711</v>
       </c>
       <c r="W25" t="n">
+        <v>0.5443242753623196</v>
+      </c>
+      <c r="X25" t="n">
+        <v>1.724470643360993</v>
+      </c>
+      <c r="Y25" t="n">
         <v>6.133333333333334</v>
       </c>
-      <c r="X25" t="n">
+      <c r="Z25" t="n">
         <v>0.08500740390188948</v>
       </c>
     </row>
@@ -17544,9 +18904,15 @@
         <v>-5.869411928637701</v>
       </c>
       <c r="W26" t="n">
+        <v>0.8115555555555565</v>
+      </c>
+      <c r="X26" t="n">
+        <v>1.59167876108484</v>
+      </c>
+      <c r="Y26" t="n">
         <v>6.600000000000001</v>
       </c>
-      <c r="X26" t="n">
+      <c r="Z26" t="n">
         <v>-0.1980533355639446</v>
       </c>
     </row>
@@ -17618,9 +18984,15 @@
         <v>2.778658182330028</v>
       </c>
       <c r="W27" t="n">
+        <v>0.9039835164835168</v>
+      </c>
+      <c r="X27" t="n">
+        <v>2.382521088255797</v>
+      </c>
+      <c r="Y27" t="n">
         <v>6.833333333333333</v>
       </c>
-      <c r="X27" t="n">
+      <c r="Z27" t="n">
         <v>1.206690169757592</v>
       </c>
     </row>
@@ -17692,9 +19064,15 @@
         <v>4.67238269063617</v>
       </c>
       <c r="W28" t="n">
+        <v>0.9203623188405803</v>
+      </c>
+      <c r="X28" t="n">
+        <v>0.9190509855307156</v>
+      </c>
+      <c r="Y28" t="n">
         <v>6.866666666666667</v>
       </c>
-      <c r="X28" t="n">
+      <c r="Z28" t="n">
         <v>0.3593813970288645</v>
       </c>
     </row>
@@ -17766,9 +19144,15 @@
         <v>1.837507530499412</v>
       </c>
       <c r="W29" t="n">
+        <v>0.9803804347826088</v>
+      </c>
+      <c r="X29" t="n">
+        <v>2.022589372440903</v>
+      </c>
+      <c r="Y29" t="n">
         <v>7.100000000000001</v>
       </c>
-      <c r="X29" t="n">
+      <c r="Z29" t="n">
         <v>0.5398218591525976</v>
       </c>
     </row>
@@ -17840,9 +19224,15 @@
         <v>4.652001563489291</v>
       </c>
       <c r="W30" t="n">
+        <v>1.093928571428571</v>
+      </c>
+      <c r="X30" t="n">
+        <v>1.503099379549398</v>
+      </c>
+      <c r="Y30" t="n">
         <v>7.366666666666667</v>
       </c>
-      <c r="X30" t="n">
+      <c r="Z30" t="n">
         <v>1.345356232782868</v>
       </c>
     </row>
@@ -17914,9 +19304,15 @@
         <v>4.658078189748251</v>
       </c>
       <c r="W31" t="n">
+        <v>1.173150183150183</v>
+      </c>
+      <c r="X31" t="n">
+        <v>1.211165913037192</v>
+      </c>
+      <c r="Y31" t="n">
         <v>7.600000000000001</v>
       </c>
-      <c r="X31" t="n">
+      <c r="Z31" t="n">
         <v>0.2027438608412624</v>
       </c>
     </row>
@@ -17988,9 +19384,15 @@
         <v>0.931420789569421</v>
       </c>
       <c r="W32" t="n">
+        <v>1.159356884057971</v>
+      </c>
+      <c r="X32" t="n">
+        <v>1.974645713851098</v>
+      </c>
+      <c r="Y32" t="n">
         <v>7.633333333333333</v>
       </c>
-      <c r="X32" t="n">
+      <c r="Z32" t="n">
         <v>1.069567515261087</v>
       </c>
     </row>
@@ -18062,9 +19464,15 @@
         <v>4.65200156348927</v>
       </c>
       <c r="W33" t="n">
+        <v>1.183777173913043</v>
+      </c>
+      <c r="X33" t="n">
+        <v>1.59825088905419</v>
+      </c>
+      <c r="Y33" t="n">
         <v>7.366666666666667</v>
       </c>
-      <c r="X33" t="n">
+      <c r="Z33" t="n">
         <v>-0.2075065333136279</v>
       </c>
     </row>
@@ -18136,9 +19544,15 @@
         <v>1.596203083978002</v>
       </c>
       <c r="W34" t="n">
+        <v>1.13275</v>
+      </c>
+      <c r="X34" t="n">
+        <v>0.4850840317691807</v>
+      </c>
+      <c r="Y34" t="n">
         <v>7.133333333333333</v>
       </c>
-      <c r="X34" t="n">
+      <c r="Z34" t="n">
         <v>-0.4447344041411498</v>
       </c>
     </row>
@@ -18210,9 +19624,15 @@
         <v>2.076470297090824</v>
       </c>
       <c r="W35" t="n">
+        <v>1.06985347985348</v>
+      </c>
+      <c r="X35" t="n">
+        <v>1.861439197710495</v>
+      </c>
+      <c r="Y35" t="n">
         <v>7.066666666666666</v>
       </c>
-      <c r="X35" t="n">
+      <c r="Z35" t="n">
         <v>-0.1700881378508468</v>
       </c>
     </row>
@@ -18284,9 +19704,15 @@
         <v>4.325408693025432</v>
       </c>
       <c r="W36" t="n">
+        <v>0.9964039855072462</v>
+      </c>
+      <c r="X36" t="n">
+        <v>1.710166196199506</v>
+      </c>
+      <c r="Y36" t="n">
         <v>6.8</v>
       </c>
-      <c r="X36" t="n">
+      <c r="Z36" t="n">
         <v>-0.02307160647698863</v>
       </c>
     </row>
@@ -18358,9 +19784,15 @@
         <v>5.350028904258899</v>
       </c>
       <c r="W37" t="n">
+        <v>0.9521014492753619</v>
+      </c>
+      <c r="X37" t="n">
+        <v>1.380735594952812</v>
+      </c>
+      <c r="Y37" t="n">
         <v>6.633333333333333</v>
       </c>
-      <c r="X37" t="n">
+      <c r="Z37" t="n">
         <v>-0.1135633490294474</v>
       </c>
     </row>
@@ -18434,9 +19866,15 @@
         <v>3.255135040800878</v>
       </c>
       <c r="W38" t="n">
+        <v>0.9268333333333333</v>
+      </c>
+      <c r="X38" t="n">
+        <v>1.004696775533694</v>
+      </c>
+      <c r="Y38" t="n">
         <v>6.566666666666666</v>
       </c>
-      <c r="X38" t="n">
+      <c r="Z38" t="n">
         <v>0.5997309935410871</v>
       </c>
     </row>
@@ -18510,9 +19948,15 @@
         <v>3.84341373392604</v>
       </c>
       <c r="W39" t="n">
+        <v>0.8729945054945051</v>
+      </c>
+      <c r="X39" t="n">
+        <v>1.477308904247951</v>
+      </c>
+      <c r="Y39" t="n">
         <v>6.2</v>
       </c>
-      <c r="X39" t="n">
+      <c r="Z39" t="n">
         <v>-0.6334456811329374</v>
       </c>
     </row>
@@ -18586,9 +20030,15 @@
         <v>-0.03279226132025664</v>
       </c>
       <c r="W40" t="n">
+        <v>0.8086413043478262</v>
+      </c>
+      <c r="X40" t="n">
+        <v>1.496829968862364</v>
+      </c>
+      <c r="Y40" t="n">
         <v>6</v>
       </c>
-      <c r="X40" t="n">
+      <c r="Z40" t="n">
         <v>-0.593522518775743</v>
       </c>
     </row>
@@ -18662,9 +20112,15 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
+        <v>0.6613496376811594</v>
+      </c>
+      <c r="X41" t="n">
+        <v>1.425481922786129</v>
+      </c>
+      <c r="Y41" t="n">
         <v>5.633333333333333</v>
       </c>
-      <c r="X41" t="n">
+      <c r="Z41" t="n">
         <v>0.03990572122865862</v>
       </c>
     </row>
@@ -18738,9 +20194,15 @@
         <v>-1.021930766046043</v>
       </c>
       <c r="W42" t="n">
+        <v>0.5834722222222226</v>
+      </c>
+      <c r="X42" t="n">
+        <v>0.8164980190834302</v>
+      </c>
+      <c r="Y42" t="n">
         <v>5.466666666666666</v>
       </c>
-      <c r="X42" t="n">
+      <c r="Z42" t="n">
         <v>0.1667516163775227</v>
       </c>
     </row>
@@ -18814,9 +20276,15 @@
         <v>-2.788690706559746</v>
       </c>
       <c r="W43" t="n">
+        <v>0.4902197802197803</v>
+      </c>
+      <c r="X43" t="n">
+        <v>1.437660580239144</v>
+      </c>
+      <c r="Y43" t="n">
         <v>5.666666666666667</v>
       </c>
-      <c r="X43" t="n">
+      <c r="Z43" t="n">
         <v>0.1078687456864371</v>
       </c>
     </row>
@@ -18890,9 +20358,15 @@
         <v>3.449195089352135</v>
       </c>
       <c r="W44" t="n">
+        <v>0.4848731884057966</v>
+      </c>
+      <c r="X44" t="n">
+        <v>1.576129160699601</v>
+      </c>
+      <c r="Y44" t="n">
         <v>5.666666666666667</v>
       </c>
-      <c r="X44" t="n">
+      <c r="Z44" t="n">
         <v>0.17628492154494</v>
       </c>
     </row>
@@ -18966,9 +20440,15 @@
         <v>2.791482780385841</v>
       </c>
       <c r="W45" t="n">
+        <v>0.4534692028985505</v>
+      </c>
+      <c r="X45" t="n">
+        <v>0.9095470657360019</v>
+      </c>
+      <c r="Y45" t="n">
         <v>5.566666666666666</v>
       </c>
-      <c r="X45" t="n">
+      <c r="Z45" t="n">
         <v>0.3721076015752325</v>
       </c>
     </row>
@@ -19042,9 +20522,15 @@
         <v>2.9645816592752</v>
       </c>
       <c r="W46" t="n">
+        <v>0.4930860805860806</v>
+      </c>
+      <c r="X46" t="n">
+        <v>1.356277617020229</v>
+      </c>
+      <c r="Y46" t="n">
         <v>5.533333333333334</v>
       </c>
-      <c r="X46" t="n">
+      <c r="Z46" t="n">
         <v>0.4143405207332206</v>
       </c>
     </row>
@@ -19118,9 +20604,15 @@
         <v>4.585591585422436</v>
       </c>
       <c r="W47" t="n">
+        <v>0.6498443223443229</v>
+      </c>
+      <c r="X47" t="n">
+        <v>1.571612376995801</v>
+      </c>
+      <c r="Y47" t="n">
         <v>5.5</v>
       </c>
-      <c r="X47" t="n">
+      <c r="Z47" t="n">
         <v>0.5776702521823834</v>
       </c>
     </row>
@@ -19194,9 +20686,15 @@
         <v>0.8276724754031047</v>
       </c>
       <c r="W48" t="n">
+        <v>0.6659510869565224</v>
+      </c>
+      <c r="X48" t="n">
+        <v>1.656144073704366</v>
+      </c>
+      <c r="Y48" t="n">
         <v>5.266666666666667</v>
       </c>
-      <c r="X48" t="n">
+      <c r="Z48" t="n">
         <v>0.2269927708221068</v>
       </c>
     </row>
@@ -19270,9 +20768,15 @@
         <v>-0.5312881446293959</v>
       </c>
       <c r="W49" t="n">
+        <v>0.6131159420289864</v>
+      </c>
+      <c r="X49" t="n">
+        <v>1.406354671425849</v>
+      </c>
+      <c r="Y49" t="n">
         <v>5.333333333333333</v>
       </c>
-      <c r="X49" t="n">
+      <c r="Z49" t="n">
         <v>-0.05740889823699988</v>
       </c>
     </row>
@@ -19346,9 +20850,15 @@
         <v>0.825233094667669</v>
       </c>
       <c r="W50" t="n">
+        <v>0.6153888888888899</v>
+      </c>
+      <c r="X50" t="n">
+        <v>1.180647927875349</v>
+      </c>
+      <c r="Y50" t="n">
         <v>5.233333333333333</v>
       </c>
-      <c r="X50" t="n">
+      <c r="Z50" t="n">
         <v>0.117688842325689</v>
       </c>
     </row>
@@ -19422,9 +20932,15 @@
         <v>1.745752802405697</v>
       </c>
       <c r="W51" t="n">
+        <v>0.5961172161172166</v>
+      </c>
+      <c r="X51" t="n">
+        <v>1.424337088689091</v>
+      </c>
+      <c r="Y51" t="n">
         <v>5</v>
       </c>
-      <c r="X51" t="n">
+      <c r="Z51" t="n">
         <v>0.3426034466506157</v>
       </c>
     </row>
@@ -19498,9 +21014,15 @@
         <v>1.318070658080374</v>
       </c>
       <c r="W52" t="n">
+        <v>0.5271648550724641</v>
+      </c>
+      <c r="X52" t="n">
+        <v>2.322965781594291</v>
+      </c>
+      <c r="Y52" t="n">
         <v>4.866666666666666</v>
       </c>
-      <c r="X52" t="n">
+      <c r="Z52" t="n">
         <v>0.7315284458661117</v>
       </c>
     </row>
@@ -19574,9 +21096,15 @@
         <v>1.749480286228099</v>
       </c>
       <c r="W53" t="n">
+        <v>0.4906521739130436</v>
+      </c>
+      <c r="X53" t="n">
+        <v>1.007127150844211</v>
+      </c>
+      <c r="Y53" t="n">
         <v>4.666666666666667</v>
       </c>
-      <c r="X53" t="n">
+      <c r="Z53" t="n">
         <v>1.385534799606143</v>
       </c>
     </row>
@@ -19650,9 +21178,15 @@
         <v>2.048798130833951</v>
       </c>
       <c r="W54" t="n">
+        <v>0.4251666666666665</v>
+      </c>
+      <c r="X54" t="n">
+        <v>1.430647922414338</v>
+      </c>
+      <c r="Y54" t="n">
         <v>4.633333333333333</v>
       </c>
-      <c r="X54" t="n">
+      <c r="Z54" t="n">
         <v>1.743426204920883</v>
       </c>
     </row>
@@ -19726,9 +21260,15 @@
         <v>3.632849373532128</v>
       </c>
       <c r="W55" t="n">
+        <v>0.4264652014652011</v>
+      </c>
+      <c r="X55" t="n">
+        <v>2.077073107508811</v>
+      </c>
+      <c r="Y55" t="n">
         <v>4.399999999999999</v>
       </c>
-      <c r="X55" t="n">
+      <c r="Z55" t="n">
         <v>1.109905120406505</v>
       </c>
     </row>
@@ -19802,9 +21342,15 @@
         <v>3.938332800037537</v>
       </c>
       <c r="W56" t="n">
+        <v>0.3879257246376813</v>
+      </c>
+      <c r="X56" t="n">
+        <v>1.93886886274309</v>
+      </c>
+      <c r="Y56" t="n">
         <v>4.533333333333333</v>
       </c>
-      <c r="X56" t="n">
+      <c r="Z56" t="n">
         <v>1.201081448069693</v>
       </c>
     </row>
@@ -19878,9 +21424,15 @@
         <v>3.298649899630645</v>
       </c>
       <c r="W57" t="n">
+        <v>0.5048641304347825</v>
+      </c>
+      <c r="X57" t="n">
+        <v>2.304719006103026</v>
+      </c>
+      <c r="Y57" t="n">
         <v>4.433333333333334</v>
       </c>
-      <c r="X57" t="n">
+      <c r="Z57" t="n">
         <v>0.1100809646699899</v>
       </c>
     </row>
@@ -19954,9 +21506,15 @@
         <v>1.585205734328175</v>
       </c>
       <c r="W58" t="n">
+        <v>0.5521944444444442</v>
+      </c>
+      <c r="X58" t="n">
+        <v>1.927781765140204</v>
+      </c>
+      <c r="Y58" t="n">
         <v>4.3</v>
       </c>
-      <c r="X58" t="n">
+      <c r="Z58" t="n">
         <v>1.272784676290975</v>
       </c>
     </row>
@@ -20030,9 +21588,15 @@
         <v>2.154224042221118</v>
       </c>
       <c r="W59" t="n">
+        <v>0.586410256410256</v>
+      </c>
+      <c r="X59" t="n">
+        <v>2.323456692645795</v>
+      </c>
+      <c r="Y59" t="n">
         <v>4.266666666666667</v>
       </c>
-      <c r="X59" t="n">
+      <c r="Z59" t="n">
         <v>-0.2006224204571036</v>
       </c>
     </row>
@@ -20106,9 +21670,15 @@
         <v>1.667292350478271</v>
       </c>
       <c r="W60" t="n">
+        <v>0.6052807971014489</v>
+      </c>
+      <c r="X60" t="n">
+        <v>2.774187356268646</v>
+      </c>
+      <c r="Y60" t="n">
         <v>4.233333333333333</v>
       </c>
-      <c r="X60" t="n">
+      <c r="Z60" t="n">
         <v>0.4878018079382341</v>
       </c>
     </row>
@@ -20182,9 +21752,15 @@
         <v>2.005830937517215</v>
       </c>
       <c r="W61" t="n">
+        <v>0.5689945652173918</v>
+      </c>
+      <c r="X61" t="n">
+        <v>1.864078036767872</v>
+      </c>
+      <c r="Y61" t="n">
         <v>4.066666666666666</v>
       </c>
-      <c r="X61" t="n">
+      <c r="Z61" t="n">
         <v>1.685107691738291</v>
       </c>
     </row>
@@ -20258,9 +21834,15 @@
         <v>2.502102804443519</v>
       </c>
       <c r="W62" t="n">
+        <v>0.5647435897435895</v>
+      </c>
+      <c r="X62" t="n">
+        <v>1.393692804223548</v>
+      </c>
+      <c r="Y62" t="n">
         <v>4.033333333333333</v>
       </c>
-      <c r="X62" t="n">
+      <c r="Z62" t="n">
         <v>2.873502365231436</v>
       </c>
     </row>
@@ -20334,9 +21916,15 @@
         <v>0.2889854184104569</v>
       </c>
       <c r="W63" t="n">
+        <v>0.4561721611721612</v>
+      </c>
+      <c r="X63" t="n">
+        <v>2.458237156983756</v>
+      </c>
+      <c r="Y63" t="n">
         <v>3.933333333333334</v>
       </c>
-      <c r="X63" t="n">
+      <c r="Z63" t="n">
         <v>-0.1849822526799591</v>
       </c>
     </row>
@@ -20410,9 +21998,15 @@
         <v>-1.003912502832854</v>
       </c>
       <c r="W64" t="n">
+        <v>0.3718025362318842</v>
+      </c>
+      <c r="X64" t="n">
+        <v>2.444978016499623</v>
+      </c>
+      <c r="Y64" t="n">
         <v>4</v>
       </c>
-      <c r="X64" t="n">
+      <c r="Z64" t="n">
         <v>1.482439099860601</v>
       </c>
     </row>
@@ -20486,9 +22080,15 @@
         <v>0.9372976452567761</v>
       </c>
       <c r="W65" t="n">
+        <v>0.319610507246376</v>
+      </c>
+      <c r="X65" t="n">
+        <v>2.000984498798462</v>
+      </c>
+      <c r="Y65" t="n">
         <v>3.9</v>
       </c>
-      <c r="X65" t="n">
+      <c r="Z65" t="n">
         <v>0.08442339646907653</v>
       </c>
     </row>
@@ -20562,9 +22162,15 @@
         <v>1.783206304244651</v>
       </c>
       <c r="W66" t="n">
+        <v>0.3999166666666676</v>
+      </c>
+      <c r="X66" t="n">
+        <v>1.755115980828378</v>
+      </c>
+      <c r="Y66" t="n">
         <v>4.233333333333333</v>
       </c>
-      <c r="X66" t="n">
+      <c r="Z66" t="n">
         <v>1.573522145657626</v>
       </c>
     </row>
@@ -20638,9 +22244,15 @@
         <v>2.605940506933865</v>
       </c>
       <c r="W67" t="n">
+        <v>0.7041575091575094</v>
+      </c>
+      <c r="X67" t="n">
+        <v>3.226908585445039</v>
+      </c>
+      <c r="Y67" t="n">
         <v>4.399999999999999</v>
       </c>
-      <c r="X67" t="n">
+      <c r="Z67" t="n">
         <v>-0.3884383569649729</v>
       </c>
     </row>
@@ -20714,9 +22326,15 @@
         <v>2.207595169919983</v>
       </c>
       <c r="W68" t="n">
+        <v>0.8896195652173914</v>
+      </c>
+      <c r="X68" t="n">
+        <v>2.956962076923184</v>
+      </c>
+      <c r="Y68" t="n">
         <v>4.833333333333333</v>
       </c>
-      <c r="X68" t="n">
+      <c r="Z68" t="n">
         <v>0.02086459700051597</v>
       </c>
     </row>
@@ -20790,9 +22408,15 @@
         <v>-0.1664932746722196</v>
       </c>
       <c r="W69" t="n">
+        <v>1.144057971014493</v>
+      </c>
+      <c r="X69" t="n">
+        <v>2.106507940897485</v>
+      </c>
+      <c r="Y69" t="n">
         <v>5.5</v>
       </c>
-      <c r="X69" t="n">
+      <c r="Z69" t="n">
         <v>0.7072959362869223</v>
       </c>
     </row>
@@ -20866,9 +22490,15 @@
         <v>2.42810282643994</v>
       </c>
       <c r="W70" t="n">
+        <v>1.280111111111111</v>
+      </c>
+      <c r="X70" t="n">
+        <v>2.556290508934249</v>
+      </c>
+      <c r="Y70" t="n">
         <v>5.7</v>
       </c>
-      <c r="X70" t="n">
+      <c r="Z70" t="n">
         <v>0.6798898102746526</v>
       </c>
     </row>
@@ -20942,9 +22572,15 @@
         <v>2.944629376628077</v>
       </c>
       <c r="W71" t="n">
+        <v>1.260448717948718</v>
+      </c>
+      <c r="X71" t="n">
+        <v>3.193849598429004</v>
+      </c>
+      <c r="Y71" t="n">
         <v>5.833333333333333</v>
       </c>
-      <c r="X71" t="n">
+      <c r="Z71" t="n">
         <v>0.5096949546853069</v>
       </c>
     </row>
@@ -21018,9 +22654,15 @@
         <v>0.9625847824106198</v>
       </c>
       <c r="W72" t="n">
+        <v>1.163115942028986</v>
+      </c>
+      <c r="X72" t="n">
+        <v>3.382704536301659</v>
+      </c>
+      <c r="Y72" t="n">
         <v>5.733333333333333</v>
       </c>
-      <c r="X72" t="n">
+      <c r="Z72" t="n">
         <v>0.09762394751077999</v>
       </c>
     </row>
@@ -21094,9 +22736,15 @@
         <v>3.193807432120631</v>
       </c>
       <c r="W73" t="n">
+        <v>1.164773550724638</v>
+      </c>
+      <c r="X73" t="n">
+        <v>3.335926404035621</v>
+      </c>
+      <c r="Y73" t="n">
         <v>5.866666666666667</v>
       </c>
-      <c r="X73" t="n">
+      <c r="Z73" t="n">
         <v>-0.1045100727625941</v>
       </c>
     </row>
@@ -21170,9 +22818,15 @@
         <v>3.186704010949004</v>
       </c>
       <c r="W74" t="n">
+        <v>1.16175</v>
+      </c>
+      <c r="X74" t="n">
+        <v>2.883834431706596</v>
+      </c>
+      <c r="Y74" t="n">
         <v>5.866666666666667</v>
       </c>
-      <c r="X74" t="n">
+      <c r="Z74" t="n">
         <v>0.8786217784293378</v>
       </c>
     </row>
@@ -21246,9 +22900,15 @@
         <v>2.302703502910492</v>
       </c>
       <c r="W75" t="n">
+        <v>1.08915750915751</v>
+      </c>
+      <c r="X75" t="n">
+        <v>4.092584021883129</v>
+      </c>
+      <c r="Y75" t="n">
         <v>6.133333333333333</v>
       </c>
-      <c r="X75" t="n">
+      <c r="Z75" t="n">
         <v>1.407307788785062</v>
       </c>
     </row>
@@ -21322,9 +22982,15 @@
         <v>5.611227921164054</v>
       </c>
       <c r="W76" t="n">
+        <v>1.165788043478261</v>
+      </c>
+      <c r="X76" t="n">
+        <v>3.700284309245446</v>
+      </c>
+      <c r="Y76" t="n">
         <v>6.133333333333333</v>
       </c>
-      <c r="X76" t="n">
+      <c r="Z76" t="n">
         <v>0.835858064210331</v>
       </c>
     </row>
@@ -21398,9 +23064,15 @@
         <v>4.522509800493581</v>
       </c>
       <c r="W77" t="n">
+        <v>1.208315217391304</v>
+      </c>
+      <c r="X77" t="n">
+        <v>3.053349690820164</v>
+      </c>
+      <c r="Y77" t="n">
         <v>5.833333333333333</v>
       </c>
-      <c r="X77" t="n">
+      <c r="Z77" t="n">
         <v>0.2926046176816195</v>
       </c>
     </row>
@@ -21474,9 +23146,15 @@
         <v>3.219401540794649</v>
       </c>
       <c r="W78" t="n">
+        <v>1.154532967032967</v>
+      </c>
+      <c r="X78" t="n">
+        <v>2.442215663267359</v>
+      </c>
+      <c r="Y78" t="n">
         <v>5.7</v>
       </c>
-      <c r="X78" t="n">
+      <c r="Z78" t="n">
         <v>-1.324006255616792</v>
       </c>
     </row>
@@ -21550,9 +23228,15 @@
         <v>5.789005745763967</v>
       </c>
       <c r="W79" t="n">
+        <v>1.178003663003663</v>
+      </c>
+      <c r="X79" t="n">
+        <v>3.778850455339486</v>
+      </c>
+      <c r="Y79" t="n">
         <v>5.599999999999999</v>
       </c>
-      <c r="X79" t="n">
+      <c r="Z79" t="n">
         <v>0.5542861517314714</v>
       </c>
     </row>
@@ -21626,9 +23310,15 @@
         <v>3.061017299825585</v>
       </c>
       <c r="W80" t="n">
+        <v>1.098976449275362</v>
+      </c>
+      <c r="X80" t="n">
+        <v>3.243024438646115</v>
+      </c>
+      <c r="Y80" t="n">
         <v>5.433333333333334</v>
       </c>
-      <c r="X80" t="n">
+      <c r="Z80" t="n">
         <v>0.870053503140498</v>
       </c>
     </row>
@@ -21702,9 +23392,15 @@
         <v>2.270889523983484</v>
       </c>
       <c r="W81" t="n">
+        <v>0.9550271739130435</v>
+      </c>
+      <c r="X81" t="n">
+        <v>3.328424582974502</v>
+      </c>
+      <c r="Y81" t="n">
         <v>5.433333333333334</v>
       </c>
-      <c r="X81" t="n">
+      <c r="Z81" t="n">
         <v>0.06841565101537322</v>
       </c>
     </row>
@@ -21778,9 +23474,15 @@
         <v>3.067810016923482</v>
       </c>
       <c r="W82" t="n">
+        <v>0.8302499999999997</v>
+      </c>
+      <c r="X82" t="n">
+        <v>2.703413482439003</v>
+      </c>
+      <c r="Y82" t="n">
         <v>5.266666666666667</v>
       </c>
-      <c r="X82" t="n">
+      <c r="Z82" t="n">
         <v>-0.1570930570968357</v>
       </c>
     </row>
@@ -21854,9 +23556,15 @@
         <v>3.962367202814642</v>
       </c>
       <c r="W83" t="n">
+        <v>0.7203937728937729</v>
+      </c>
+      <c r="X83" t="n">
+        <v>3.43869398959077</v>
+      </c>
+      <c r="Y83" t="n">
         <v>5.133333333333334</v>
       </c>
-      <c r="X83" t="n">
+      <c r="Z83" t="n">
         <v>0.05899602191465735</v>
       </c>
     </row>
@@ -21930,9 +23638,15 @@
         <v>3.609665538721766</v>
       </c>
       <c r="W84" t="n">
+        <v>0.5941666666666664</v>
+      </c>
+      <c r="X84" t="n">
+        <v>3.391335399011536</v>
+      </c>
+      <c r="Y84" t="n">
         <v>4.966666666666667</v>
       </c>
-      <c r="X84" t="n">
+      <c r="Z84" t="n">
         <v>0.3537434252962114</v>
       </c>
     </row>
@@ -22006,9 +23720,15 @@
         <v>1.911960772932828</v>
       </c>
       <c r="W85" t="n">
+        <v>0.557934782608696</v>
+      </c>
+      <c r="X85" t="n">
+        <v>2.918458922592683</v>
+      </c>
+      <c r="Y85" t="n">
         <v>4.933333333333334</v>
       </c>
-      <c r="X85" t="n">
+      <c r="Z85" t="n">
         <v>-0.2841729381919869</v>
       </c>
     </row>
@@ -22082,9 +23802,15 @@
         <v>0.6661756687066653</v>
       </c>
       <c r="W86" t="n">
+        <v>0.4848055555555564</v>
+      </c>
+      <c r="X86" t="n">
+        <v>3.299154487576608</v>
+      </c>
+      <c r="Y86" t="n">
         <v>4.733333333333333</v>
       </c>
-      <c r="X86" t="n">
+      <c r="Z86" t="n">
         <v>0.5922682521558574</v>
       </c>
     </row>
@@ -22158,9 +23884,15 @@
         <v>-3.618095085053826</v>
       </c>
       <c r="W87" t="n">
+        <v>0.4356043956043951</v>
+      </c>
+      <c r="X87" t="n">
+        <v>3.270203388442527</v>
+      </c>
+      <c r="Y87" t="n">
         <v>4.666666666666667</v>
       </c>
-      <c r="X87" t="n">
+      <c r="Z87" t="n">
         <v>-0.3625624765729431</v>
       </c>
     </row>
@@ -22234,9 +23966,15 @@
         <v>-5.597424557967874</v>
       </c>
       <c r="W88" t="n">
+        <v>0.3803351449275361</v>
+      </c>
+      <c r="X88" t="n">
+        <v>2.452670051098675</v>
+      </c>
+      <c r="Y88" t="n">
         <v>4.633333333333334</v>
       </c>
-      <c r="X88" t="n">
+      <c r="Z88" t="n">
         <v>-0.4086285672709357</v>
       </c>
     </row>
@@ -22310,9 +24048,15 @@
         <v>-4.63595220847842</v>
       </c>
       <c r="W89" t="n">
+        <v>0.3200996376811596</v>
+      </c>
+      <c r="X89" t="n">
+        <v>1.561745592277124</v>
+      </c>
+      <c r="Y89" t="n">
         <v>4.433333333333334</v>
       </c>
-      <c r="X89" t="n">
+      <c r="Z89" t="n">
         <v>1.714879675359611</v>
       </c>
     </row>
@@ -22386,9 +24130,15 @@
         <v>-4.049252848757594</v>
       </c>
       <c r="W90" t="n">
+        <v>0.2855277777777772</v>
+      </c>
+      <c r="X90" t="n">
+        <v>1.985720555225968</v>
+      </c>
+      <c r="Y90" t="n">
         <v>4.5</v>
       </c>
-      <c r="X90" t="n">
+      <c r="Z90" t="n">
         <v>0.1031395160449592</v>
       </c>
     </row>
@@ -22462,9 +24212,15 @@
         <v>-3.730490243232172</v>
       </c>
       <c r="W91" t="n">
+        <v>0.2968956043956039</v>
+      </c>
+      <c r="X91" t="n">
+        <v>2.009313040563272</v>
+      </c>
+      <c r="Y91" t="n">
         <v>4.533333333333333</v>
       </c>
-      <c r="X91" t="n">
+      <c r="Z91" t="n">
         <v>-0.1542698105039519</v>
       </c>
     </row>
@@ -22538,9 +24294,15 @@
         <v>-6.219049377310645</v>
       </c>
       <c r="W92" t="n">
+        <v>0.4147463768115944</v>
+      </c>
+      <c r="X92" t="n">
+        <v>1.466721578856795</v>
+      </c>
+      <c r="Y92" t="n">
         <v>4.7</v>
       </c>
-      <c r="X92" t="n">
+      <c r="Z92" t="n">
         <v>0.2567767678574419</v>
       </c>
     </row>
@@ -22614,9 +24376,15 @@
         <v>-8.541775115435177</v>
       </c>
       <c r="W93" t="n">
+        <v>0.480253623188406</v>
+      </c>
+      <c r="X93" t="n">
+        <v>1.142426764255193</v>
+      </c>
+      <c r="Y93" t="n">
         <v>4.8</v>
       </c>
-      <c r="X93" t="n">
+      <c r="Z93" t="n">
         <v>0.6534733065439211</v>
       </c>
     </row>
@@ -22690,9 +24458,15 @@
         <v>-8.701137698962981</v>
       </c>
       <c r="W94" t="n">
+        <v>0.7096428571428575</v>
+      </c>
+      <c r="X94" t="n">
+        <v>0.6990711183999552</v>
+      </c>
+      <c r="Y94" t="n">
         <v>4.933333333333333</v>
       </c>
-      <c r="X94" t="n">
+      <c r="Z94" t="n">
         <v>-0.05454483292428998</v>
       </c>
     </row>
@@ -22766,9 +24540,15 @@
         <v>-4.722798026623292</v>
       </c>
       <c r="W95" t="n">
+        <v>1.009652014652014</v>
+      </c>
+      <c r="X95" t="n">
+        <v>-0.03901832214169923</v>
+      </c>
+      <c r="Y95" t="n">
         <v>5.366666666666667</v>
       </c>
-      <c r="X95" t="n">
+      <c r="Z95" t="n">
         <v>-0.1196851139522223</v>
       </c>
     </row>
@@ -22842,9 +24622,15 @@
         <v>-5.319076748081435</v>
       </c>
       <c r="W96" t="n">
+        <v>1.112336956521739</v>
+      </c>
+      <c r="X96" t="n">
+        <v>-0.3419194141507763</v>
+      </c>
+      <c r="Y96" t="n">
         <v>6.066666666666666</v>
       </c>
-      <c r="X96" t="n">
+      <c r="Z96" t="n">
         <v>0.1195313852514801</v>
       </c>
     </row>
@@ -22918,9 +24704,15 @@
         <v>-9.109372942539009</v>
       </c>
       <c r="W97" t="n">
+        <v>1.378668478260869</v>
+      </c>
+      <c r="X97" t="n">
+        <v>-0.7136561296930838</v>
+      </c>
+      <c r="Y97" t="n">
         <v>6.866666666666666</v>
       </c>
-      <c r="X97" t="n">
+      <c r="Z97" t="n">
         <v>0.6884937614143962</v>
       </c>
     </row>
@@ -22994,9 +24786,15 @@
         <v>-13.27970066383171</v>
       </c>
       <c r="W98" t="n">
+        <v>1.242222222222222</v>
+      </c>
+      <c r="X98" t="n">
+        <v>-0.003524898885789755</v>
+      </c>
+      <c r="Y98" t="n">
         <v>8.066666666666666</v>
       </c>
-      <c r="X98" t="n">
+      <c r="Z98" t="n">
         <v>-1.663510808814617</v>
       </c>
     </row>
@@ -23070,9 +24868,15 @@
         <v>-7.970907406686524</v>
       </c>
       <c r="W99" t="n">
+        <v>1.211327838827839</v>
+      </c>
+      <c r="X99" t="n">
+        <v>-0.3309406478507456</v>
+      </c>
+      <c r="Y99" t="n">
         <v>9.266666666666667</v>
       </c>
-      <c r="X99" t="n">
+      <c r="Z99" t="n">
         <v>0.08853890747293923</v>
       </c>
     </row>
@@ -23144,9 +24948,13 @@
         <v>4.245119570561991</v>
       </c>
       <c r="W100" t="n">
+        <v>1.288079710144928</v>
+      </c>
+      <c r="X100" t="inlineStr"/>
+      <c r="Y100" t="n">
         <v>9.633333333333335</v>
       </c>
-      <c r="X100" t="n">
+      <c r="Z100" t="n">
         <v>0.7274649914078629</v>
       </c>
     </row>
@@ -23178,9 +24986,7 @@
       <c r="M101" t="inlineStr"/>
       <c r="N101" t="inlineStr"/>
       <c r="O101" t="inlineStr"/>
-      <c r="P101" t="n">
-        <v>-54.69654820499168</v>
-      </c>
+      <c r="P101" t="inlineStr"/>
       <c r="Q101" t="inlineStr"/>
       <c r="R101" t="inlineStr"/>
       <c r="S101" t="inlineStr"/>
@@ -23189,6 +24995,8 @@
       <c r="V101" t="inlineStr"/>
       <c r="W101" t="inlineStr"/>
       <c r="X101" t="inlineStr"/>
+      <c r="Y101" t="inlineStr"/>
+      <c r="Z101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
@@ -23201,7 +25009,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X101"/>
+  <dimension ref="A1:Z101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23317,10 +25125,20 @@
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
+          <t>mortffr_obs</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>mortgage_nom_obs</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
           <t>unr_obs</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>wage_rgd_obs</t>
         </is>
@@ -23394,9 +25212,15 @@
         <v>0.163800200423837</v>
       </c>
       <c r="W2" t="n">
+        <v>0.970388888888889</v>
+      </c>
+      <c r="X2" t="n">
+        <v>4.838279261661252</v>
+      </c>
+      <c r="Y2" t="n">
         <v>7.233333333333333</v>
       </c>
-      <c r="X2" t="n">
+      <c r="Z2" t="n">
         <v>0.0585619023566217</v>
       </c>
     </row>
@@ -23468,9 +25292,15 @@
         <v>0.9772064733792302</v>
       </c>
       <c r="W3" t="n">
+        <v>1.014734432234433</v>
+      </c>
+      <c r="X3" t="n">
+        <v>2.887889102968135</v>
+      </c>
+      <c r="Y3" t="n">
         <v>7.3</v>
       </c>
-      <c r="X3" t="n">
+      <c r="Z3" t="n">
         <v>0.2561233676117278</v>
       </c>
     </row>
@@ -23542,9 +25372,15 @@
         <v>1.979203413194857</v>
       </c>
       <c r="W4" t="n">
+        <v>0.8547554347826087</v>
+      </c>
+      <c r="X4" t="n">
+        <v>4.283328736272085</v>
+      </c>
+      <c r="Y4" t="n">
         <v>7.2</v>
       </c>
-      <c r="X4" t="n">
+      <c r="Z4" t="n">
         <v>0.9294994864702675</v>
       </c>
     </row>
@@ -23616,9 +25452,15 @@
         <v>3.487212571402014</v>
       </c>
       <c r="W5" t="n">
+        <v>0.7705525362318832</v>
+      </c>
+      <c r="X5" t="n">
+        <v>3.377405381157359</v>
+      </c>
+      <c r="Y5" t="n">
         <v>7.033333333333334</v>
       </c>
-      <c r="X5" t="n">
+      <c r="Z5" t="n">
         <v>1.136886190987389</v>
       </c>
     </row>
@@ -23690,9 +25532,15 @@
         <v>5.377104065178582</v>
       </c>
       <c r="W6" t="n">
+        <v>0.7299444444444461</v>
+      </c>
+      <c r="X6" t="n">
+        <v>1.821793037383781</v>
+      </c>
+      <c r="Y6" t="n">
         <v>7.033333333333334</v>
       </c>
-      <c r="X6" t="n">
+      <c r="Z6" t="n">
         <v>0.8024461665134646</v>
       </c>
     </row>
@@ -23764,9 +25612,15 @@
         <v>6.338662189231478</v>
       </c>
       <c r="W7" t="n">
+        <v>0.8312179487179467</v>
+      </c>
+      <c r="X7" t="n">
+        <v>3.266066946893799</v>
+      </c>
+      <c r="Y7" t="n">
         <v>7.166666666666667</v>
       </c>
-      <c r="X7" t="n">
+      <c r="Z7" t="n">
         <v>0.4574238561276663</v>
       </c>
     </row>
@@ -23838,9 +25692,15 @@
         <v>2.825933731440306</v>
       </c>
       <c r="W8" t="n">
+        <v>0.9993025362318846</v>
+      </c>
+      <c r="X8" t="n">
+        <v>3.995249609571855</v>
+      </c>
+      <c r="Y8" t="n">
         <v>6.966666666666666</v>
       </c>
-      <c r="X8" t="n">
+      <c r="Z8" t="n">
         <v>0.5089154227391779</v>
       </c>
     </row>
@@ -23912,9 +25772,15 @@
         <v>0.9683174251825857</v>
       </c>
       <c r="W9" t="n">
+        <v>0.8933152173913048</v>
+      </c>
+      <c r="X9" t="n">
+        <v>3.767756284239854</v>
+      </c>
+      <c r="Y9" t="n">
         <v>6.833333333333333</v>
       </c>
-      <c r="X9" t="n">
+      <c r="Z9" t="n">
         <v>0.535950991194442</v>
       </c>
     </row>
@@ -23986,9 +25852,15 @@
         <v>0.7853443505570304</v>
       </c>
       <c r="W10" t="n">
+        <v>0.7668611111111105</v>
+      </c>
+      <c r="X10" t="n">
+        <v>1.947735118636464</v>
+      </c>
+      <c r="Y10" t="n">
         <v>6.599999999999999</v>
       </c>
-      <c r="X10" t="n">
+      <c r="Z10" t="n">
         <v>-0.2790726782977443</v>
       </c>
     </row>
@@ -24060,9 +25932,15 @@
         <v>1.209517984897514</v>
       </c>
       <c r="W11" t="n">
+        <v>0.6541666666666672</v>
+      </c>
+      <c r="X11" t="n">
+        <v>4.147767327829527</v>
+      </c>
+      <c r="Y11" t="n">
         <v>6.266666666666667</v>
       </c>
-      <c r="X11" t="n">
+      <c r="Z11" t="n">
         <v>0.1112838271730546</v>
       </c>
     </row>
@@ -24134,9 +26012,15 @@
         <v>0.5566274273321643</v>
       </c>
       <c r="W12" t="n">
+        <v>0.6326086956521739</v>
+      </c>
+      <c r="X12" t="n">
+        <v>2.826774900665543</v>
+      </c>
+      <c r="Y12" t="n">
         <v>6</v>
       </c>
-      <c r="X12" t="n">
+      <c r="Z12" t="n">
         <v>0.2338340968445509</v>
       </c>
     </row>
@@ -24208,9 +26092,15 @@
         <v>1.399217231107909</v>
       </c>
       <c r="W13" t="n">
+        <v>0.5842481884057971</v>
+      </c>
+      <c r="X13" t="n">
+        <v>1.41489184132428</v>
+      </c>
+      <c r="Y13" t="n">
         <v>5.833333333333333</v>
       </c>
-      <c r="X13" t="n">
+      <c r="Z13" t="n">
         <v>0.4288254204660166</v>
       </c>
     </row>
@@ -24282,9 +26172,15 @@
         <v>-1.31385657718383</v>
       </c>
       <c r="W14" t="n">
+        <v>0.6285164835164825</v>
+      </c>
+      <c r="X14" t="n">
+        <v>2.538290967561651</v>
+      </c>
+      <c r="Y14" t="n">
         <v>5.7</v>
       </c>
-      <c r="X14" t="n">
+      <c r="Z14" t="n">
         <v>0.9604147122408058</v>
       </c>
     </row>
@@ -24356,9 +26252,15 @@
         <v>1.692087748833718</v>
       </c>
       <c r="W15" t="n">
+        <v>0.5179304029304042</v>
+      </c>
+      <c r="X15" t="n">
+        <v>3.489634163901059</v>
+      </c>
+      <c r="Y15" t="n">
         <v>5.466666666666666</v>
       </c>
-      <c r="X15" t="n">
+      <c r="Z15" t="n">
         <v>0.2133605501158805</v>
       </c>
     </row>
@@ -24430,9 +26332,15 @@
         <v>0.6688988150796489</v>
       </c>
       <c r="W16" t="n">
+        <v>0.3266304347826092</v>
+      </c>
+      <c r="X16" t="n">
+        <v>2.91823679065083</v>
+      </c>
+      <c r="Y16" t="n">
         <v>5.466666666666666</v>
       </c>
-      <c r="X16" t="n">
+      <c r="Z16" t="n">
         <v>-0.02583299344620927</v>
       </c>
     </row>
@@ -24504,9 +26412,15 @@
         <v>1.816730395544893</v>
       </c>
       <c r="W17" t="n">
+        <v>0.2487137681159424</v>
+      </c>
+      <c r="X17" t="n">
+        <v>2.726497326586302</v>
+      </c>
+      <c r="Y17" t="n">
         <v>5.333333333333333</v>
       </c>
-      <c r="X17" t="n">
+      <c r="Z17" t="n">
         <v>-0.1606901132240531</v>
       </c>
     </row>
@@ -24578,9 +26492,15 @@
         <v>0.08179959556317626</v>
       </c>
       <c r="W18" t="n">
+        <v>0.08588888888888979</v>
+      </c>
+      <c r="X18" t="n">
+        <v>1.643544561454601</v>
+      </c>
+      <c r="Y18" t="n">
         <v>5.2</v>
       </c>
-      <c r="X18" t="n">
+      <c r="Z18" t="n">
         <v>-0.7871523321403552</v>
       </c>
     </row>
@@ -24652,9 +26572,15 @@
         <v>-1.815231360718883</v>
       </c>
       <c r="W19" t="n">
+        <v>0.1560714285714275</v>
+      </c>
+      <c r="X19" t="n">
+        <v>2.721931283633474</v>
+      </c>
+      <c r="Y19" t="n">
         <v>5.233333333333333</v>
       </c>
-      <c r="X19" t="n">
+      <c r="Z19" t="n">
         <v>-0.718270759276684</v>
       </c>
     </row>
@@ -24726,9 +26652,15 @@
         <v>-0.7521974454688446</v>
       </c>
       <c r="W20" t="n">
+        <v>0.2882699275362324</v>
+      </c>
+      <c r="X20" t="n">
+        <v>2.947527669609471</v>
+      </c>
+      <c r="Y20" t="n">
         <v>5.233333333333333</v>
       </c>
-      <c r="X20" t="n">
+      <c r="Z20" t="n">
         <v>0.1213990856734398</v>
       </c>
     </row>
@@ -24800,9 +26732,15 @@
         <v>-1.521584723725332</v>
       </c>
       <c r="W21" t="n">
+        <v>0.3705525362318833</v>
+      </c>
+      <c r="X21" t="n">
+        <v>2.213323210101831</v>
+      </c>
+      <c r="Y21" t="n">
         <v>5.366666666666667</v>
       </c>
-      <c r="X21" t="n">
+      <c r="Z21" t="n">
         <v>0.7056477911718986</v>
       </c>
     </row>
@@ -24874,9 +26812,15 @@
         <v>1.856593412253519</v>
       </c>
       <c r="W22" t="n">
+        <v>0.4446666666666679</v>
+      </c>
+      <c r="X22" t="n">
+        <v>3.257750385284998</v>
+      </c>
+      <c r="Y22" t="n">
         <v>5.3</v>
       </c>
-      <c r="X22" t="n">
+      <c r="Z22" t="n">
         <v>0.7077631708862511</v>
       </c>
     </row>
@@ -24948,9 +26892,15 @@
         <v>-3.531530571602695</v>
       </c>
       <c r="W23" t="n">
+        <v>0.4802481684981683</v>
+      </c>
+      <c r="X23" t="n">
+        <v>2.560864642558711</v>
+      </c>
+      <c r="Y23" t="n">
         <v>5.333333333333333</v>
       </c>
-      <c r="X23" t="n">
+      <c r="Z23" t="n">
         <v>0.9744668559119278</v>
       </c>
     </row>
@@ -25022,9 +26972,15 @@
         <v>-5.382664581262346</v>
       </c>
       <c r="W24" t="n">
+        <v>0.4706123188405811</v>
+      </c>
+      <c r="X24" t="n">
+        <v>2.122346525019553</v>
+      </c>
+      <c r="Y24" t="n">
         <v>5.7</v>
       </c>
-      <c r="X24" t="n">
+      <c r="Z24" t="n">
         <v>0.6411849710942379</v>
       </c>
     </row>
@@ -25096,9 +27052,15 @@
         <v>-5.543927728245711</v>
       </c>
       <c r="W25" t="n">
+        <v>0.5443242753623196</v>
+      </c>
+      <c r="X25" t="n">
+        <v>1.724470643360993</v>
+      </c>
+      <c r="Y25" t="n">
         <v>6.133333333333334</v>
       </c>
-      <c r="X25" t="n">
+      <c r="Z25" t="n">
         <v>0.08500740390188948</v>
       </c>
     </row>
@@ -25170,9 +27132,15 @@
         <v>-5.869411928637701</v>
       </c>
       <c r="W26" t="n">
+        <v>0.8115555555555565</v>
+      </c>
+      <c r="X26" t="n">
+        <v>1.59167876108484</v>
+      </c>
+      <c r="Y26" t="n">
         <v>6.600000000000001</v>
       </c>
-      <c r="X26" t="n">
+      <c r="Z26" t="n">
         <v>-0.1980533355639446</v>
       </c>
     </row>
@@ -25244,9 +27212,15 @@
         <v>2.778658182330028</v>
       </c>
       <c r="W27" t="n">
+        <v>0.9039835164835168</v>
+      </c>
+      <c r="X27" t="n">
+        <v>2.382521088255797</v>
+      </c>
+      <c r="Y27" t="n">
         <v>6.833333333333333</v>
       </c>
-      <c r="X27" t="n">
+      <c r="Z27" t="n">
         <v>1.206690169757592</v>
       </c>
     </row>
@@ -25318,9 +27292,15 @@
         <v>4.67238269063617</v>
       </c>
       <c r="W28" t="n">
+        <v>0.9203623188405803</v>
+      </c>
+      <c r="X28" t="n">
+        <v>0.9190509855307156</v>
+      </c>
+      <c r="Y28" t="n">
         <v>6.866666666666667</v>
       </c>
-      <c r="X28" t="n">
+      <c r="Z28" t="n">
         <v>0.3593813970288645</v>
       </c>
     </row>
@@ -25392,9 +27372,15 @@
         <v>1.837507530499412</v>
       </c>
       <c r="W29" t="n">
+        <v>0.9803804347826088</v>
+      </c>
+      <c r="X29" t="n">
+        <v>2.022589372440903</v>
+      </c>
+      <c r="Y29" t="n">
         <v>7.100000000000001</v>
       </c>
-      <c r="X29" t="n">
+      <c r="Z29" t="n">
         <v>0.5398218591525976</v>
       </c>
     </row>
@@ -25466,9 +27452,15 @@
         <v>4.652001563489291</v>
       </c>
       <c r="W30" t="n">
+        <v>1.093928571428571</v>
+      </c>
+      <c r="X30" t="n">
+        <v>1.503099379549398</v>
+      </c>
+      <c r="Y30" t="n">
         <v>7.366666666666667</v>
       </c>
-      <c r="X30" t="n">
+      <c r="Z30" t="n">
         <v>1.345356232782868</v>
       </c>
     </row>
@@ -25540,9 +27532,15 @@
         <v>4.658078189748251</v>
       </c>
       <c r="W31" t="n">
+        <v>1.173150183150183</v>
+      </c>
+      <c r="X31" t="n">
+        <v>1.211165913037192</v>
+      </c>
+      <c r="Y31" t="n">
         <v>7.600000000000001</v>
       </c>
-      <c r="X31" t="n">
+      <c r="Z31" t="n">
         <v>0.2027438608412624</v>
       </c>
     </row>
@@ -25614,9 +27612,15 @@
         <v>0.931420789569421</v>
       </c>
       <c r="W32" t="n">
+        <v>1.159356884057971</v>
+      </c>
+      <c r="X32" t="n">
+        <v>1.974645713851098</v>
+      </c>
+      <c r="Y32" t="n">
         <v>7.633333333333333</v>
       </c>
-      <c r="X32" t="n">
+      <c r="Z32" t="n">
         <v>1.069567515261087</v>
       </c>
     </row>
@@ -25688,9 +27692,15 @@
         <v>4.65200156348927</v>
       </c>
       <c r="W33" t="n">
+        <v>1.183777173913043</v>
+      </c>
+      <c r="X33" t="n">
+        <v>1.59825088905419</v>
+      </c>
+      <c r="Y33" t="n">
         <v>7.366666666666667</v>
       </c>
-      <c r="X33" t="n">
+      <c r="Z33" t="n">
         <v>-0.2075065333136279</v>
       </c>
     </row>
@@ -25762,9 +27772,15 @@
         <v>1.596203083978002</v>
       </c>
       <c r="W34" t="n">
+        <v>1.13275</v>
+      </c>
+      <c r="X34" t="n">
+        <v>0.4850840317691807</v>
+      </c>
+      <c r="Y34" t="n">
         <v>7.133333333333333</v>
       </c>
-      <c r="X34" t="n">
+      <c r="Z34" t="n">
         <v>-0.4447344041411498</v>
       </c>
     </row>
@@ -25836,9 +27852,15 @@
         <v>2.076470297090824</v>
       </c>
       <c r="W35" t="n">
+        <v>1.06985347985348</v>
+      </c>
+      <c r="X35" t="n">
+        <v>1.861439197710495</v>
+      </c>
+      <c r="Y35" t="n">
         <v>7.066666666666666</v>
       </c>
-      <c r="X35" t="n">
+      <c r="Z35" t="n">
         <v>-0.1700881378508468</v>
       </c>
     </row>
@@ -25910,9 +27932,15 @@
         <v>4.325408693025432</v>
       </c>
       <c r="W36" t="n">
+        <v>0.9964039855072462</v>
+      </c>
+      <c r="X36" t="n">
+        <v>1.710166196199506</v>
+      </c>
+      <c r="Y36" t="n">
         <v>6.8</v>
       </c>
-      <c r="X36" t="n">
+      <c r="Z36" t="n">
         <v>-0.02307160647698863</v>
       </c>
     </row>
@@ -25984,9 +28012,15 @@
         <v>5.350028904258899</v>
       </c>
       <c r="W37" t="n">
+        <v>0.9521014492753619</v>
+      </c>
+      <c r="X37" t="n">
+        <v>1.380735594952812</v>
+      </c>
+      <c r="Y37" t="n">
         <v>6.633333333333333</v>
       </c>
-      <c r="X37" t="n">
+      <c r="Z37" t="n">
         <v>-0.1135633490294474</v>
       </c>
     </row>
@@ -26060,9 +28094,15 @@
         <v>3.255135040800878</v>
       </c>
       <c r="W38" t="n">
+        <v>0.9268333333333333</v>
+      </c>
+      <c r="X38" t="n">
+        <v>1.004696775533694</v>
+      </c>
+      <c r="Y38" t="n">
         <v>6.566666666666666</v>
       </c>
-      <c r="X38" t="n">
+      <c r="Z38" t="n">
         <v>0.5997309935410871</v>
       </c>
     </row>
@@ -26136,9 +28176,15 @@
         <v>3.84341373392604</v>
       </c>
       <c r="W39" t="n">
+        <v>0.8729945054945051</v>
+      </c>
+      <c r="X39" t="n">
+        <v>1.477308904247951</v>
+      </c>
+      <c r="Y39" t="n">
         <v>6.2</v>
       </c>
-      <c r="X39" t="n">
+      <c r="Z39" t="n">
         <v>-0.6334456811329374</v>
       </c>
     </row>
@@ -26212,9 +28258,15 @@
         <v>-0.03279226132025664</v>
       </c>
       <c r="W40" t="n">
+        <v>0.8086413043478262</v>
+      </c>
+      <c r="X40" t="n">
+        <v>1.496829968862364</v>
+      </c>
+      <c r="Y40" t="n">
         <v>6</v>
       </c>
-      <c r="X40" t="n">
+      <c r="Z40" t="n">
         <v>-0.593522518775743</v>
       </c>
     </row>
@@ -26288,9 +28340,15 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
+        <v>0.6613496376811594</v>
+      </c>
+      <c r="X41" t="n">
+        <v>1.425481922786129</v>
+      </c>
+      <c r="Y41" t="n">
         <v>5.633333333333333</v>
       </c>
-      <c r="X41" t="n">
+      <c r="Z41" t="n">
         <v>0.03990572122865862</v>
       </c>
     </row>
@@ -26364,9 +28422,15 @@
         <v>-1.021930766046043</v>
       </c>
       <c r="W42" t="n">
+        <v>0.5834722222222226</v>
+      </c>
+      <c r="X42" t="n">
+        <v>0.8164980190834302</v>
+      </c>
+      <c r="Y42" t="n">
         <v>5.466666666666666</v>
       </c>
-      <c r="X42" t="n">
+      <c r="Z42" t="n">
         <v>0.1667516163775227</v>
       </c>
     </row>
@@ -26440,9 +28504,15 @@
         <v>-2.788690706559746</v>
       </c>
       <c r="W43" t="n">
+        <v>0.4902197802197803</v>
+      </c>
+      <c r="X43" t="n">
+        <v>1.437660580239144</v>
+      </c>
+      <c r="Y43" t="n">
         <v>5.666666666666667</v>
       </c>
-      <c r="X43" t="n">
+      <c r="Z43" t="n">
         <v>0.1078687456864371</v>
       </c>
     </row>
@@ -26516,9 +28586,15 @@
         <v>3.449195089352135</v>
       </c>
       <c r="W44" t="n">
+        <v>0.4848731884057966</v>
+      </c>
+      <c r="X44" t="n">
+        <v>1.576129160699601</v>
+      </c>
+      <c r="Y44" t="n">
         <v>5.666666666666667</v>
       </c>
-      <c r="X44" t="n">
+      <c r="Z44" t="n">
         <v>0.17628492154494</v>
       </c>
     </row>
@@ -26592,9 +28668,15 @@
         <v>2.791482780385841</v>
       </c>
       <c r="W45" t="n">
+        <v>0.4534692028985505</v>
+      </c>
+      <c r="X45" t="n">
+        <v>0.9095470657360019</v>
+      </c>
+      <c r="Y45" t="n">
         <v>5.566666666666666</v>
       </c>
-      <c r="X45" t="n">
+      <c r="Z45" t="n">
         <v>0.3721076015752325</v>
       </c>
     </row>
@@ -26668,9 +28750,15 @@
         <v>2.9645816592752</v>
       </c>
       <c r="W46" t="n">
+        <v>0.4930860805860806</v>
+      </c>
+      <c r="X46" t="n">
+        <v>1.356277617020229</v>
+      </c>
+      <c r="Y46" t="n">
         <v>5.533333333333334</v>
       </c>
-      <c r="X46" t="n">
+      <c r="Z46" t="n">
         <v>0.4143405207332206</v>
       </c>
     </row>
@@ -26744,9 +28832,15 @@
         <v>4.585591585422436</v>
       </c>
       <c r="W47" t="n">
+        <v>0.6498443223443229</v>
+      </c>
+      <c r="X47" t="n">
+        <v>1.571612376995801</v>
+      </c>
+      <c r="Y47" t="n">
         <v>5.5</v>
       </c>
-      <c r="X47" t="n">
+      <c r="Z47" t="n">
         <v>0.5776702521823834</v>
       </c>
     </row>
@@ -26820,9 +28914,15 @@
         <v>0.8276724754031047</v>
       </c>
       <c r="W48" t="n">
+        <v>0.6659510869565224</v>
+      </c>
+      <c r="X48" t="n">
+        <v>1.656144073704366</v>
+      </c>
+      <c r="Y48" t="n">
         <v>5.266666666666667</v>
       </c>
-      <c r="X48" t="n">
+      <c r="Z48" t="n">
         <v>0.2269927708221068</v>
       </c>
     </row>
@@ -26896,9 +28996,15 @@
         <v>-0.5312881446293959</v>
       </c>
       <c r="W49" t="n">
+        <v>0.6131159420289864</v>
+      </c>
+      <c r="X49" t="n">
+        <v>1.406354671425849</v>
+      </c>
+      <c r="Y49" t="n">
         <v>5.333333333333333</v>
       </c>
-      <c r="X49" t="n">
+      <c r="Z49" t="n">
         <v>-0.05740889823699988</v>
       </c>
     </row>
@@ -26972,9 +29078,15 @@
         <v>0.825233094667669</v>
       </c>
       <c r="W50" t="n">
+        <v>0.6153888888888899</v>
+      </c>
+      <c r="X50" t="n">
+        <v>1.180647927875349</v>
+      </c>
+      <c r="Y50" t="n">
         <v>5.233333333333333</v>
       </c>
-      <c r="X50" t="n">
+      <c r="Z50" t="n">
         <v>0.117688842325689</v>
       </c>
     </row>
@@ -27048,9 +29160,15 @@
         <v>1.745752802405697</v>
       </c>
       <c r="W51" t="n">
+        <v>0.5961172161172166</v>
+      </c>
+      <c r="X51" t="n">
+        <v>1.424337088689091</v>
+      </c>
+      <c r="Y51" t="n">
         <v>5</v>
       </c>
-      <c r="X51" t="n">
+      <c r="Z51" t="n">
         <v>0.3426034466506157</v>
       </c>
     </row>
@@ -27124,9 +29242,15 @@
         <v>1.318070658080374</v>
       </c>
       <c r="W52" t="n">
+        <v>0.5271648550724641</v>
+      </c>
+      <c r="X52" t="n">
+        <v>2.322965781594291</v>
+      </c>
+      <c r="Y52" t="n">
         <v>4.866666666666666</v>
       </c>
-      <c r="X52" t="n">
+      <c r="Z52" t="n">
         <v>0.7315284458661117</v>
       </c>
     </row>
@@ -27200,9 +29324,15 @@
         <v>1.749480286228099</v>
       </c>
       <c r="W53" t="n">
+        <v>0.4906521739130436</v>
+      </c>
+      <c r="X53" t="n">
+        <v>1.007127150844211</v>
+      </c>
+      <c r="Y53" t="n">
         <v>4.666666666666667</v>
       </c>
-      <c r="X53" t="n">
+      <c r="Z53" t="n">
         <v>1.385534799606143</v>
       </c>
     </row>
@@ -27276,9 +29406,15 @@
         <v>2.048798130833951</v>
       </c>
       <c r="W54" t="n">
+        <v>0.4251666666666665</v>
+      </c>
+      <c r="X54" t="n">
+        <v>1.430647922414338</v>
+      </c>
+      <c r="Y54" t="n">
         <v>4.633333333333333</v>
       </c>
-      <c r="X54" t="n">
+      <c r="Z54" t="n">
         <v>1.743426204920883</v>
       </c>
     </row>
@@ -27352,9 +29488,15 @@
         <v>3.632849373532128</v>
       </c>
       <c r="W55" t="n">
+        <v>0.4264652014652011</v>
+      </c>
+      <c r="X55" t="n">
+        <v>2.077073107508811</v>
+      </c>
+      <c r="Y55" t="n">
         <v>4.399999999999999</v>
       </c>
-      <c r="X55" t="n">
+      <c r="Z55" t="n">
         <v>1.109905120406505</v>
       </c>
     </row>
@@ -27428,9 +29570,15 @@
         <v>3.938332800037537</v>
       </c>
       <c r="W56" t="n">
+        <v>0.3879257246376813</v>
+      </c>
+      <c r="X56" t="n">
+        <v>1.93886886274309</v>
+      </c>
+      <c r="Y56" t="n">
         <v>4.533333333333333</v>
       </c>
-      <c r="X56" t="n">
+      <c r="Z56" t="n">
         <v>1.201081448069693</v>
       </c>
     </row>
@@ -27504,9 +29652,15 @@
         <v>3.298649899630645</v>
       </c>
       <c r="W57" t="n">
+        <v>0.5048641304347825</v>
+      </c>
+      <c r="X57" t="n">
+        <v>2.304719006103026</v>
+      </c>
+      <c r="Y57" t="n">
         <v>4.433333333333334</v>
       </c>
-      <c r="X57" t="n">
+      <c r="Z57" t="n">
         <v>0.1100809646699899</v>
       </c>
     </row>
@@ -27580,9 +29734,15 @@
         <v>1.585205734328175</v>
       </c>
       <c r="W58" t="n">
+        <v>0.5521944444444442</v>
+      </c>
+      <c r="X58" t="n">
+        <v>1.927781765140204</v>
+      </c>
+      <c r="Y58" t="n">
         <v>4.3</v>
       </c>
-      <c r="X58" t="n">
+      <c r="Z58" t="n">
         <v>1.272784676290975</v>
       </c>
     </row>
@@ -27656,9 +29816,15 @@
         <v>2.154224042221118</v>
       </c>
       <c r="W59" t="n">
+        <v>0.586410256410256</v>
+      </c>
+      <c r="X59" t="n">
+        <v>2.323456692645795</v>
+      </c>
+      <c r="Y59" t="n">
         <v>4.266666666666667</v>
       </c>
-      <c r="X59" t="n">
+      <c r="Z59" t="n">
         <v>-0.2006224204571036</v>
       </c>
     </row>
@@ -27732,9 +29898,15 @@
         <v>1.667292350478271</v>
       </c>
       <c r="W60" t="n">
+        <v>0.6052807971014489</v>
+      </c>
+      <c r="X60" t="n">
+        <v>2.774187356268646</v>
+      </c>
+      <c r="Y60" t="n">
         <v>4.233333333333333</v>
       </c>
-      <c r="X60" t="n">
+      <c r="Z60" t="n">
         <v>0.4878018079382341</v>
       </c>
     </row>
@@ -27808,9 +29980,15 @@
         <v>2.005830937517215</v>
       </c>
       <c r="W61" t="n">
+        <v>0.5689945652173918</v>
+      </c>
+      <c r="X61" t="n">
+        <v>1.864078036767872</v>
+      </c>
+      <c r="Y61" t="n">
         <v>4.066666666666666</v>
       </c>
-      <c r="X61" t="n">
+      <c r="Z61" t="n">
         <v>1.685107691738291</v>
       </c>
     </row>
@@ -27884,9 +30062,15 @@
         <v>2.502102804443519</v>
       </c>
       <c r="W62" t="n">
+        <v>0.5647435897435895</v>
+      </c>
+      <c r="X62" t="n">
+        <v>1.393692804223548</v>
+      </c>
+      <c r="Y62" t="n">
         <v>4.033333333333333</v>
       </c>
-      <c r="X62" t="n">
+      <c r="Z62" t="n">
         <v>2.873502365231436</v>
       </c>
     </row>
@@ -27960,9 +30144,15 @@
         <v>0.2889854184104569</v>
       </c>
       <c r="W63" t="n">
+        <v>0.4561721611721612</v>
+      </c>
+      <c r="X63" t="n">
+        <v>2.458237156983756</v>
+      </c>
+      <c r="Y63" t="n">
         <v>3.933333333333334</v>
       </c>
-      <c r="X63" t="n">
+      <c r="Z63" t="n">
         <v>-0.1849822526799591</v>
       </c>
     </row>
@@ -28036,9 +30226,15 @@
         <v>-1.003912502832854</v>
       </c>
       <c r="W64" t="n">
+        <v>0.3718025362318842</v>
+      </c>
+      <c r="X64" t="n">
+        <v>2.444978016499623</v>
+      </c>
+      <c r="Y64" t="n">
         <v>4</v>
       </c>
-      <c r="X64" t="n">
+      <c r="Z64" t="n">
         <v>1.482439099860601</v>
       </c>
     </row>
@@ -28112,9 +30308,15 @@
         <v>0.9372976452567761</v>
       </c>
       <c r="W65" t="n">
+        <v>0.319610507246376</v>
+      </c>
+      <c r="X65" t="n">
+        <v>2.000984498798462</v>
+      </c>
+      <c r="Y65" t="n">
         <v>3.9</v>
       </c>
-      <c r="X65" t="n">
+      <c r="Z65" t="n">
         <v>0.08442339646907653</v>
       </c>
     </row>
@@ -28188,9 +30390,15 @@
         <v>1.783206304244651</v>
       </c>
       <c r="W66" t="n">
+        <v>0.3999166666666676</v>
+      </c>
+      <c r="X66" t="n">
+        <v>1.755115980828378</v>
+      </c>
+      <c r="Y66" t="n">
         <v>4.233333333333333</v>
       </c>
-      <c r="X66" t="n">
+      <c r="Z66" t="n">
         <v>1.573522145657626</v>
       </c>
     </row>
@@ -28264,9 +30472,15 @@
         <v>2.605940506933865</v>
       </c>
       <c r="W67" t="n">
+        <v>0.7041575091575094</v>
+      </c>
+      <c r="X67" t="n">
+        <v>3.226908585445039</v>
+      </c>
+      <c r="Y67" t="n">
         <v>4.399999999999999</v>
       </c>
-      <c r="X67" t="n">
+      <c r="Z67" t="n">
         <v>-0.3884383569649729</v>
       </c>
     </row>
@@ -28340,9 +30554,15 @@
         <v>2.207595169919983</v>
       </c>
       <c r="W68" t="n">
+        <v>0.8896195652173914</v>
+      </c>
+      <c r="X68" t="n">
+        <v>2.956962076923184</v>
+      </c>
+      <c r="Y68" t="n">
         <v>4.833333333333333</v>
       </c>
-      <c r="X68" t="n">
+      <c r="Z68" t="n">
         <v>0.02086459700051597</v>
       </c>
     </row>
@@ -28416,9 +30636,15 @@
         <v>-0.1664932746722196</v>
       </c>
       <c r="W69" t="n">
+        <v>1.144057971014493</v>
+      </c>
+      <c r="X69" t="n">
+        <v>2.106507940897485</v>
+      </c>
+      <c r="Y69" t="n">
         <v>5.5</v>
       </c>
-      <c r="X69" t="n">
+      <c r="Z69" t="n">
         <v>0.7072959362869223</v>
       </c>
     </row>
@@ -28492,9 +30718,15 @@
         <v>2.42810282643994</v>
       </c>
       <c r="W70" t="n">
+        <v>1.280111111111111</v>
+      </c>
+      <c r="X70" t="n">
+        <v>2.556290508934249</v>
+      </c>
+      <c r="Y70" t="n">
         <v>5.7</v>
       </c>
-      <c r="X70" t="n">
+      <c r="Z70" t="n">
         <v>0.6798898102746526</v>
       </c>
     </row>
@@ -28568,9 +30800,15 @@
         <v>2.944629376628077</v>
       </c>
       <c r="W71" t="n">
+        <v>1.260448717948718</v>
+      </c>
+      <c r="X71" t="n">
+        <v>3.193849598429004</v>
+      </c>
+      <c r="Y71" t="n">
         <v>5.833333333333333</v>
       </c>
-      <c r="X71" t="n">
+      <c r="Z71" t="n">
         <v>0.5096949546853069</v>
       </c>
     </row>
@@ -28644,9 +30882,15 @@
         <v>0.9625847824106198</v>
       </c>
       <c r="W72" t="n">
+        <v>1.163115942028986</v>
+      </c>
+      <c r="X72" t="n">
+        <v>3.382704536301659</v>
+      </c>
+      <c r="Y72" t="n">
         <v>5.733333333333333</v>
       </c>
-      <c r="X72" t="n">
+      <c r="Z72" t="n">
         <v>0.09762394751077999</v>
       </c>
     </row>
@@ -28720,9 +30964,15 @@
         <v>3.193807432120631</v>
       </c>
       <c r="W73" t="n">
+        <v>1.164773550724638</v>
+      </c>
+      <c r="X73" t="n">
+        <v>3.335926404035621</v>
+      </c>
+      <c r="Y73" t="n">
         <v>5.866666666666667</v>
       </c>
-      <c r="X73" t="n">
+      <c r="Z73" t="n">
         <v>-0.1045100727625941</v>
       </c>
     </row>
@@ -28796,9 +31046,15 @@
         <v>3.186704010949004</v>
       </c>
       <c r="W74" t="n">
+        <v>1.16175</v>
+      </c>
+      <c r="X74" t="n">
+        <v>2.883834431706596</v>
+      </c>
+      <c r="Y74" t="n">
         <v>5.866666666666667</v>
       </c>
-      <c r="X74" t="n">
+      <c r="Z74" t="n">
         <v>0.8786217784293378</v>
       </c>
     </row>
@@ -28872,9 +31128,15 @@
         <v>2.302703502910492</v>
       </c>
       <c r="W75" t="n">
+        <v>1.08915750915751</v>
+      </c>
+      <c r="X75" t="n">
+        <v>4.092584021883129</v>
+      </c>
+      <c r="Y75" t="n">
         <v>6.133333333333333</v>
       </c>
-      <c r="X75" t="n">
+      <c r="Z75" t="n">
         <v>1.407307788785062</v>
       </c>
     </row>
@@ -28948,9 +31210,15 @@
         <v>5.611227921164054</v>
       </c>
       <c r="W76" t="n">
+        <v>1.165788043478261</v>
+      </c>
+      <c r="X76" t="n">
+        <v>3.700284309245446</v>
+      </c>
+      <c r="Y76" t="n">
         <v>6.133333333333333</v>
       </c>
-      <c r="X76" t="n">
+      <c r="Z76" t="n">
         <v>0.835858064210331</v>
       </c>
     </row>
@@ -29024,9 +31292,15 @@
         <v>4.522509800493581</v>
       </c>
       <c r="W77" t="n">
+        <v>1.208315217391304</v>
+      </c>
+      <c r="X77" t="n">
+        <v>3.053349690820164</v>
+      </c>
+      <c r="Y77" t="n">
         <v>5.833333333333333</v>
       </c>
-      <c r="X77" t="n">
+      <c r="Z77" t="n">
         <v>0.2926046176816195</v>
       </c>
     </row>
@@ -29100,9 +31374,15 @@
         <v>3.219401540794649</v>
       </c>
       <c r="W78" t="n">
+        <v>1.154532967032967</v>
+      </c>
+      <c r="X78" t="n">
+        <v>2.442215663267359</v>
+      </c>
+      <c r="Y78" t="n">
         <v>5.7</v>
       </c>
-      <c r="X78" t="n">
+      <c r="Z78" t="n">
         <v>-1.324006255616792</v>
       </c>
     </row>
@@ -29176,9 +31456,15 @@
         <v>5.789005745763967</v>
       </c>
       <c r="W79" t="n">
+        <v>1.178003663003663</v>
+      </c>
+      <c r="X79" t="n">
+        <v>3.778850455339486</v>
+      </c>
+      <c r="Y79" t="n">
         <v>5.599999999999999</v>
       </c>
-      <c r="X79" t="n">
+      <c r="Z79" t="n">
         <v>0.5542861517314714</v>
       </c>
     </row>
@@ -29252,9 +31538,15 @@
         <v>3.061017299825585</v>
       </c>
       <c r="W80" t="n">
+        <v>1.098976449275362</v>
+      </c>
+      <c r="X80" t="n">
+        <v>3.243024438646115</v>
+      </c>
+      <c r="Y80" t="n">
         <v>5.433333333333334</v>
       </c>
-      <c r="X80" t="n">
+      <c r="Z80" t="n">
         <v>0.870053503140498</v>
       </c>
     </row>
@@ -29328,9 +31620,15 @@
         <v>2.270889523983484</v>
       </c>
       <c r="W81" t="n">
+        <v>0.9550271739130435</v>
+      </c>
+      <c r="X81" t="n">
+        <v>3.328424582974502</v>
+      </c>
+      <c r="Y81" t="n">
         <v>5.433333333333334</v>
       </c>
-      <c r="X81" t="n">
+      <c r="Z81" t="n">
         <v>0.06841565101537322</v>
       </c>
     </row>
@@ -29404,9 +31702,15 @@
         <v>3.067810016923482</v>
       </c>
       <c r="W82" t="n">
+        <v>0.8302499999999997</v>
+      </c>
+      <c r="X82" t="n">
+        <v>2.703413482439003</v>
+      </c>
+      <c r="Y82" t="n">
         <v>5.266666666666667</v>
       </c>
-      <c r="X82" t="n">
+      <c r="Z82" t="n">
         <v>-0.1570930570968357</v>
       </c>
     </row>
@@ -29480,9 +31784,15 @@
         <v>3.962367202814642</v>
       </c>
       <c r="W83" t="n">
+        <v>0.7203937728937729</v>
+      </c>
+      <c r="X83" t="n">
+        <v>3.43869398959077</v>
+      </c>
+      <c r="Y83" t="n">
         <v>5.133333333333334</v>
       </c>
-      <c r="X83" t="n">
+      <c r="Z83" t="n">
         <v>0.05899602191465735</v>
       </c>
     </row>
@@ -29556,9 +31866,15 @@
         <v>3.609665538721766</v>
       </c>
       <c r="W84" t="n">
+        <v>0.5941666666666664</v>
+      </c>
+      <c r="X84" t="n">
+        <v>3.391335399011536</v>
+      </c>
+      <c r="Y84" t="n">
         <v>4.966666666666667</v>
       </c>
-      <c r="X84" t="n">
+      <c r="Z84" t="n">
         <v>0.3537434252962114</v>
       </c>
     </row>
@@ -29632,9 +31948,15 @@
         <v>1.911960772932828</v>
       </c>
       <c r="W85" t="n">
+        <v>0.557934782608696</v>
+      </c>
+      <c r="X85" t="n">
+        <v>2.918458922592683</v>
+      </c>
+      <c r="Y85" t="n">
         <v>4.933333333333334</v>
       </c>
-      <c r="X85" t="n">
+      <c r="Z85" t="n">
         <v>-0.2841729381919869</v>
       </c>
     </row>
@@ -29708,9 +32030,15 @@
         <v>0.6661756687066653</v>
       </c>
       <c r="W86" t="n">
+        <v>0.4848055555555564</v>
+      </c>
+      <c r="X86" t="n">
+        <v>3.299154487576608</v>
+      </c>
+      <c r="Y86" t="n">
         <v>4.733333333333333</v>
       </c>
-      <c r="X86" t="n">
+      <c r="Z86" t="n">
         <v>0.5922682521558574</v>
       </c>
     </row>
@@ -29784,9 +32112,15 @@
         <v>-3.618095085053826</v>
       </c>
       <c r="W87" t="n">
+        <v>0.4356043956043951</v>
+      </c>
+      <c r="X87" t="n">
+        <v>3.270203388442527</v>
+      </c>
+      <c r="Y87" t="n">
         <v>4.666666666666667</v>
       </c>
-      <c r="X87" t="n">
+      <c r="Z87" t="n">
         <v>-0.3625624765729431</v>
       </c>
     </row>
@@ -29860,9 +32194,15 @@
         <v>-5.597424557967874</v>
       </c>
       <c r="W88" t="n">
+        <v>0.3803351449275361</v>
+      </c>
+      <c r="X88" t="n">
+        <v>2.452670051098675</v>
+      </c>
+      <c r="Y88" t="n">
         <v>4.633333333333334</v>
       </c>
-      <c r="X88" t="n">
+      <c r="Z88" t="n">
         <v>-0.4086285672709357</v>
       </c>
     </row>
@@ -29936,9 +32276,15 @@
         <v>-4.63595220847842</v>
       </c>
       <c r="W89" t="n">
+        <v>0.3200996376811596</v>
+      </c>
+      <c r="X89" t="n">
+        <v>1.561745592277124</v>
+      </c>
+      <c r="Y89" t="n">
         <v>4.433333333333334</v>
       </c>
-      <c r="X89" t="n">
+      <c r="Z89" t="n">
         <v>1.714879675359611</v>
       </c>
     </row>
@@ -30012,9 +32358,15 @@
         <v>-4.049252848757594</v>
       </c>
       <c r="W90" t="n">
+        <v>0.2855277777777772</v>
+      </c>
+      <c r="X90" t="n">
+        <v>1.985720555225968</v>
+      </c>
+      <c r="Y90" t="n">
         <v>4.5</v>
       </c>
-      <c r="X90" t="n">
+      <c r="Z90" t="n">
         <v>0.1031395160449592</v>
       </c>
     </row>
@@ -30088,9 +32440,15 @@
         <v>-3.730490243232172</v>
       </c>
       <c r="W91" t="n">
+        <v>0.2968956043956039</v>
+      </c>
+      <c r="X91" t="n">
+        <v>2.009313040563272</v>
+      </c>
+      <c r="Y91" t="n">
         <v>4.533333333333333</v>
       </c>
-      <c r="X91" t="n">
+      <c r="Z91" t="n">
         <v>-0.1542698105039519</v>
       </c>
     </row>
@@ -30164,9 +32522,15 @@
         <v>-6.219049377310645</v>
       </c>
       <c r="W92" t="n">
+        <v>0.4147463768115944</v>
+      </c>
+      <c r="X92" t="n">
+        <v>1.466721578856795</v>
+      </c>
+      <c r="Y92" t="n">
         <v>4.7</v>
       </c>
-      <c r="X92" t="n">
+      <c r="Z92" t="n">
         <v>0.2567767678574419</v>
       </c>
     </row>
@@ -30240,9 +32604,15 @@
         <v>-8.541775115435177</v>
       </c>
       <c r="W93" t="n">
+        <v>0.480253623188406</v>
+      </c>
+      <c r="X93" t="n">
+        <v>1.142426764255193</v>
+      </c>
+      <c r="Y93" t="n">
         <v>4.8</v>
       </c>
-      <c r="X93" t="n">
+      <c r="Z93" t="n">
         <v>0.6534733065439211</v>
       </c>
     </row>
@@ -30316,9 +32686,15 @@
         <v>-8.701137698962981</v>
       </c>
       <c r="W94" t="n">
+        <v>0.7096428571428575</v>
+      </c>
+      <c r="X94" t="n">
+        <v>0.6990711183999552</v>
+      </c>
+      <c r="Y94" t="n">
         <v>4.933333333333333</v>
       </c>
-      <c r="X94" t="n">
+      <c r="Z94" t="n">
         <v>-0.05454483292428998</v>
       </c>
     </row>
@@ -30392,9 +32768,15 @@
         <v>-4.722798026623292</v>
       </c>
       <c r="W95" t="n">
+        <v>1.009652014652014</v>
+      </c>
+      <c r="X95" t="n">
+        <v>-0.03901832214169923</v>
+      </c>
+      <c r="Y95" t="n">
         <v>5.366666666666667</v>
       </c>
-      <c r="X95" t="n">
+      <c r="Z95" t="n">
         <v>-0.1196851139522223</v>
       </c>
     </row>
@@ -30468,9 +32850,15 @@
         <v>-5.319076748081435</v>
       </c>
       <c r="W96" t="n">
+        <v>1.112336956521739</v>
+      </c>
+      <c r="X96" t="n">
+        <v>-0.3419194141507763</v>
+      </c>
+      <c r="Y96" t="n">
         <v>6.066666666666666</v>
       </c>
-      <c r="X96" t="n">
+      <c r="Z96" t="n">
         <v>0.1195313852514801</v>
       </c>
     </row>
@@ -30544,9 +32932,15 @@
         <v>-9.109372942539009</v>
       </c>
       <c r="W97" t="n">
+        <v>1.378668478260869</v>
+      </c>
+      <c r="X97" t="n">
+        <v>-0.7136561296930838</v>
+      </c>
+      <c r="Y97" t="n">
         <v>6.866666666666666</v>
       </c>
-      <c r="X97" t="n">
+      <c r="Z97" t="n">
         <v>0.6884937614143962</v>
       </c>
     </row>
@@ -30620,9 +33014,15 @@
         <v>-13.27970066383171</v>
       </c>
       <c r="W98" t="n">
+        <v>1.242222222222222</v>
+      </c>
+      <c r="X98" t="n">
+        <v>-0.003524898885789755</v>
+      </c>
+      <c r="Y98" t="n">
         <v>8.066666666666666</v>
       </c>
-      <c r="X98" t="n">
+      <c r="Z98" t="n">
         <v>-1.663510808814617</v>
       </c>
     </row>
@@ -30696,9 +33096,15 @@
         <v>-7.970907406686524</v>
       </c>
       <c r="W99" t="n">
+        <v>1.211327838827839</v>
+      </c>
+      <c r="X99" t="n">
+        <v>-0.3309406478507456</v>
+      </c>
+      <c r="Y99" t="n">
         <v>9.266666666666667</v>
       </c>
-      <c r="X99" t="n">
+      <c r="Z99" t="n">
         <v>0.08853890747293923</v>
       </c>
     </row>
@@ -30770,9 +33176,13 @@
         <v>4.245119570561991</v>
       </c>
       <c r="W100" t="n">
+        <v>1.288079710144928</v>
+      </c>
+      <c r="X100" t="inlineStr"/>
+      <c r="Y100" t="n">
         <v>9.633333333333335</v>
       </c>
-      <c r="X100" t="n">
+      <c r="Z100" t="n">
         <v>0.7274649914078629</v>
       </c>
     </row>
@@ -30812,9 +33222,7 @@
       <c r="O101" t="n">
         <v>948.0141468376768</v>
       </c>
-      <c r="P101" t="n">
-        <v>-54.69654820499168</v>
-      </c>
+      <c r="P101" t="inlineStr"/>
       <c r="Q101" t="inlineStr"/>
       <c r="R101" t="inlineStr"/>
       <c r="S101" t="inlineStr"/>
@@ -30827,6 +33235,8 @@
       </c>
       <c r="W101" t="inlineStr"/>
       <c r="X101" t="inlineStr"/>
+      <c r="Y101" t="inlineStr"/>
+      <c r="Z101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/data/vintage_data/data_20091110.xlsx
+++ b/data/vintage_data/data_20091110.xlsx
@@ -16767,7 +16767,9 @@
       </c>
       <c r="W101" t="inlineStr"/>
       <c r="X101" t="inlineStr"/>
-      <c r="Y101" t="inlineStr"/>
+      <c r="Y101" t="n">
+        <v>10.1029</v>
+      </c>
       <c r="Z101" t="inlineStr"/>
     </row>
   </sheetData>
@@ -33235,7 +33237,9 @@
       </c>
       <c r="W101" t="inlineStr"/>
       <c r="X101" t="inlineStr"/>
-      <c r="Y101" t="inlineStr"/>
+      <c r="Y101" t="n">
+        <v>10.1029</v>
+      </c>
       <c r="Z101" t="inlineStr"/>
     </row>
   </sheetData>
